--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G623"/>
+  <dimension ref="A1:G563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13531,10 +13531,8 @@
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr"/>
-      <c r="G472" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G472" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="473">
@@ -13564,10 +13562,8 @@
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G473" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="474">
@@ -13585,10 +13581,8 @@
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr"/>
       <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G474" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="475">
@@ -13614,10 +13608,8 @@
       </c>
       <c r="E475" t="inlineStr"/>
       <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G475" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="476">
@@ -13643,10 +13635,8 @@
       </c>
       <c r="E476" t="inlineStr"/>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G476" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="477">
@@ -13672,10 +13662,8 @@
       </c>
       <c r="E477" t="inlineStr"/>
       <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G477" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="478">
@@ -13701,10 +13689,8 @@
       </c>
       <c r="E478" t="inlineStr"/>
       <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G478" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="479">
@@ -13730,10 +13716,8 @@
       </c>
       <c r="E479" t="inlineStr"/>
       <c r="F479" t="inlineStr"/>
-      <c r="G479" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G479" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="480">
@@ -13767,10 +13751,8 @@
           <t>120.0K</t>
         </is>
       </c>
-      <c r="G480" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G480" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="481">
@@ -13804,10 +13786,8 @@
           <t>$ -93.0B</t>
         </is>
       </c>
-      <c r="G481" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G481" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="482">
@@ -13837,10 +13817,8 @@
           <t>$ 262B</t>
         </is>
       </c>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G482" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="483">
@@ -13870,10 +13848,8 @@
           <t>$ 355.0B</t>
         </is>
       </c>
-      <c r="G483" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G483" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="484">
@@ -13891,10 +13867,8 @@
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr"/>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G484" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="485">
@@ -13912,10 +13886,8 @@
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr"/>
       <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G485" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="486">
@@ -13949,10 +13921,8 @@
           <t>52.4</t>
         </is>
       </c>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G486" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="487">
@@ -13986,10 +13956,8 @@
           <t>52.8</t>
         </is>
       </c>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G487" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="488">
@@ -14023,10 +13991,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G488" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="489">
@@ -14056,10 +14022,8 @@
           <t>58.1</t>
         </is>
       </c>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G489" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="490">
@@ -14089,10 +14053,8 @@
           <t>51.3</t>
         </is>
       </c>
-      <c r="G490" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G490" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="491">
@@ -14122,10 +14084,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G491" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="492">
@@ -14155,10 +14115,8 @@
           <t>64.8</t>
         </is>
       </c>
-      <c r="G492" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G492" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="493">
@@ -14188,10 +14146,8 @@
         </is>
       </c>
       <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G493" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="494">
@@ -14221,10 +14177,8 @@
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G494" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="495">
@@ -14250,10 +14204,8 @@
       </c>
       <c r="E495" t="inlineStr"/>
       <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G495" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="496">
@@ -14279,10 +14231,8 @@
       </c>
       <c r="E496" t="inlineStr"/>
       <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G496" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="497">
@@ -14308,10 +14258,8 @@
       </c>
       <c r="E497" t="inlineStr"/>
       <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G497" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -14341,10 +14289,8 @@
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G498" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -14370,10 +14316,8 @@
       </c>
       <c r="E499" t="inlineStr"/>
       <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G499" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -14399,10 +14343,8 @@
       </c>
       <c r="E500" t="inlineStr"/>
       <c r="F500" t="inlineStr"/>
-      <c r="G500" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G500" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -14428,10 +14370,8 @@
       </c>
       <c r="E501" t="inlineStr"/>
       <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G501" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -14457,10 +14397,8 @@
       </c>
       <c r="E502" t="inlineStr"/>
       <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G502" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -14478,10 +14416,8 @@
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr"/>
       <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G503" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="504">
@@ -14512,10 +14448,8 @@
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -14541,10 +14475,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G506" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="507">
@@ -14574,10 +14506,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G507" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="508">
@@ -14607,10 +14537,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G508" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="509">
@@ -14640,10 +14568,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G509" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="510">
@@ -14673,10 +14599,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G510" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -14702,10 +14626,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -14731,10 +14653,8 @@
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -14756,10 +14676,8 @@
       </c>
       <c r="E513" t="inlineStr"/>
       <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -14781,10 +14699,8 @@
       </c>
       <c r="E514" t="inlineStr"/>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -14806,10 +14722,8 @@
       </c>
       <c r="E515" t="inlineStr"/>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -14831,10 +14745,8 @@
       </c>
       <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -14852,55 +14764,65 @@
       </c>
       <c r="E517" t="inlineStr"/>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeFEB/07</t>
+        </is>
+      </c>
       <c r="C518" t="inlineStr"/>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr"/>
       <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr"/>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>0.373M</t>
+        </is>
+      </c>
       <c r="E519" t="inlineStr"/>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
         </is>
       </c>
       <c r="C520" t="inlineStr"/>
@@ -14909,27 +14831,23 @@
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C521" t="inlineStr"/>
-      <c r="D521" t="inlineStr">
-        <is>
-          <t>$6.82T</t>
-        </is>
-      </c>
+      <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr">
@@ -14941,127 +14859,83 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C522" t="inlineStr"/>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="E522" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
-      <c r="F522" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="D522" t="inlineStr"/>
+      <c r="E522" t="inlineStr"/>
+      <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C523" t="inlineStr"/>
       <c r="D523" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E523" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F523" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>4.68%</t>
+        </is>
+      </c>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 13 2025</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr"/>
       <c r="C524" t="inlineStr"/>
-      <c r="D524" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F524" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D524" t="inlineStr"/>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr"/>
+      <c r="G524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Monthly Budget StatementJAN</t>
         </is>
       </c>
       <c r="C525" t="inlineStr"/>
       <c r="D525" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E525" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>$-87B</t>
+        </is>
+      </c>
+      <c r="E525" t="inlineStr"/>
       <c r="F525" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>$-87.0B</t>
         </is>
       </c>
       <c r="G525" t="inlineStr">
@@ -15078,24 +14952,20 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr"/>
       <c r="D526" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E526" t="inlineStr"/>
-      <c r="F526" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="F526" t="inlineStr"/>
       <c r="G526" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15107,28 +14977,20 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Core PPI MoMJAN</t>
         </is>
       </c>
       <c r="C527" t="inlineStr"/>
       <c r="D527" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E527" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F527" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E527" t="inlineStr"/>
+      <c r="F527" t="inlineStr"/>
       <c r="G527" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15140,24 +15002,16 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Initial Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C528" t="inlineStr"/>
-      <c r="D528" t="inlineStr">
-        <is>
-          <t>33K</t>
-        </is>
-      </c>
+      <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr"/>
-      <c r="F528" t="inlineStr">
-        <is>
-          <t>25K</t>
-        </is>
-      </c>
+      <c r="F528" t="inlineStr"/>
       <c r="G528" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15169,25 +15023,13 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Continuing Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="C529" t="inlineStr"/>
-      <c r="D529" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="E529" t="inlineStr">
-        <is>
-          <t>-2K</t>
-        </is>
-      </c>
-      <c r="F529" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="D529" t="inlineStr"/>
+      <c r="E529" t="inlineStr"/>
+      <c r="F529" t="inlineStr"/>
       <c r="G529" t="inlineStr">
         <is>
           <t>3</t>
@@ -15202,25 +15044,17 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Core PPI YoYJAN</t>
         </is>
       </c>
       <c r="C530" t="inlineStr"/>
       <c r="D530" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>141K</t>
-        </is>
-      </c>
-      <c r="F530" t="inlineStr">
-        <is>
-          <t>180K</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr"/>
+      <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr">
         <is>
           <t>3</t>
@@ -15235,21 +15069,13 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Jobless Claims 4-week AverageFEB/08</t>
         </is>
       </c>
       <c r="C531" t="inlineStr"/>
-      <c r="D531" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr"/>
-      <c r="F531" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr">
         <is>
           <t>3</t>
@@ -15259,80 +15085,72 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>07:55 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>PPIJAN</t>
         </is>
       </c>
       <c r="C532" t="inlineStr"/>
-      <c r="D532" t="inlineStr"/>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>146.842</t>
+        </is>
+      </c>
       <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr"/>
       <c r="D533" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E533" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F533" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E533" t="inlineStr"/>
+      <c r="F533" t="inlineStr"/>
       <c r="G533" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr"/>
       <c r="D534" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E534" t="inlineStr"/>
-      <c r="F534" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F534" t="inlineStr"/>
       <c r="G534" t="inlineStr">
         <is>
           <t>3</t>
@@ -15342,30 +15160,22 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="C535" t="inlineStr"/>
       <c r="D535" t="inlineStr">
         <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E535" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="F535" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E535" t="inlineStr"/>
+      <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr">
         <is>
           <t>3</t>
@@ -15375,30 +15185,18 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C536" t="inlineStr"/>
-      <c r="D536" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="F536" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+      <c r="D536" t="inlineStr"/>
+      <c r="E536" t="inlineStr"/>
+      <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr">
         <is>
           <t>3</t>
@@ -15408,26 +15206,18 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C537" t="inlineStr"/>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr"/>
-      <c r="F537" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr">
         <is>
           <t>3</t>
@@ -15437,30 +15227,18 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E538" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F538" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D538" t="inlineStr"/>
+      <c r="E538" t="inlineStr"/>
+      <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr">
         <is>
           <t>3</t>
@@ -15475,7 +15253,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>15-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C539" t="inlineStr"/>
@@ -15484,27 +15262,23 @@
       <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>30-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C540" t="inlineStr"/>
-      <c r="D540" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
+      <c r="D540" t="inlineStr"/>
       <c r="E540" t="inlineStr"/>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr">
@@ -15521,13 +15295,13 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C541" t="inlineStr"/>
       <c r="D541" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>4.913%</t>
         </is>
       </c>
       <c r="E541" t="inlineStr"/>
@@ -15539,39 +15313,31 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" t="inlineStr"/>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Friday February 14 2025</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr"/>
       <c r="C542" t="inlineStr"/>
-      <c r="D542" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr"/>
       <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G542" t="inlineStr"/>
     </row>
     <row r="543">
-      <c r="A543" t="inlineStr"/>
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Fed Balance SheetFEB/12</t>
         </is>
       </c>
       <c r="C543" t="inlineStr"/>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr">
@@ -15583,115 +15349,147 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMJAN</t>
+        </is>
+      </c>
       <c r="C544" t="inlineStr"/>
-      <c r="D544" t="inlineStr"/>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr"/>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>Export Prices MoMJAN</t>
         </is>
       </c>
       <c r="C545" t="inlineStr"/>
       <c r="D545" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="E545" t="inlineStr">
-        <is>
-          <t>$12.35B</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E545" t="inlineStr"/>
       <c r="F545" t="inlineStr">
         <is>
-          <t>$ 18B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G545" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Import Prices MoMJAN</t>
+        </is>
+      </c>
       <c r="C546" t="inlineStr"/>
-      <c r="D546" t="inlineStr"/>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr"/>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Retail Sales Control Group MoMJAN</t>
+        </is>
+      </c>
       <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr"/>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr"/>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
       <c r="C548" t="inlineStr"/>
       <c r="D548" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Export Prices YoYJAN</t>
         </is>
       </c>
       <c r="C549" t="inlineStr"/>
       <c r="D549" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
@@ -15705,18 +15503,18 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Import Prices YoYJAN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr"/>
       <c r="D550" t="inlineStr">
         <is>
-          <t>4.155%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E550" t="inlineStr"/>
@@ -15730,31 +15528,43 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+        </is>
+      </c>
       <c r="C551" t="inlineStr"/>
-      <c r="D551" t="inlineStr"/>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E551" t="inlineStr"/>
       <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr"/>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJAN</t>
+          <t>Retail Sales YoYJAN</t>
         </is>
       </c>
       <c r="C552" t="inlineStr"/>
       <c r="D552" t="inlineStr">
         <is>
-          <t>105.1</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E552" t="inlineStr"/>
@@ -15768,16 +15578,20 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>07:20 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Industrial Production MoMJAN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr"/>
-      <c r="D553" t="inlineStr"/>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr"/>
       <c r="G553" t="inlineStr">
@@ -15789,18 +15603,18 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/08</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr"/>
       <c r="D554" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>77.6%</t>
         </is>
       </c>
       <c r="E554" t="inlineStr"/>
@@ -15814,18 +15628,18 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Total Household DebtQ4</t>
+          <t>Industrial Production YoYJAN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr">
         <is>
-          <t>$17.9T</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E555" t="inlineStr"/>
@@ -15839,16 +15653,20 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Manufacturing Production MoMJAN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr"/>
-      <c r="D556" t="inlineStr"/>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="E556" t="inlineStr"/>
       <c r="F556" t="inlineStr"/>
       <c r="G556" t="inlineStr">
@@ -15860,18 +15678,18 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Manufacturing Production YoYJAN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr"/>
       <c r="D557" t="inlineStr">
         <is>
-          <t>4.332%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E557" t="inlineStr"/>
@@ -15885,83 +15703,95 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Wednesday February 12 2025</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Business Inventories MoMDEC</t>
+        </is>
+      </c>
       <c r="C558" t="inlineStr"/>
-      <c r="D558" t="inlineStr"/>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E558" t="inlineStr"/>
       <c r="F558" t="inlineStr"/>
-      <c r="G558" t="inlineStr"/>
+      <c r="G558" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/07</t>
+          <t>Retail Inventories Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C559" t="inlineStr"/>
       <c r="D559" t="inlineStr">
         <is>
-          <t>5.025M</t>
-        </is>
-      </c>
-      <c r="E559" t="inlineStr"/>
-      <c r="F559" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G559" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/07</t>
+          <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
       <c r="C560" t="inlineStr"/>
-      <c r="D560" t="inlineStr">
-        <is>
-          <t>6.97%</t>
-        </is>
-      </c>
+      <c r="D560" t="inlineStr"/>
       <c r="E560" t="inlineStr"/>
       <c r="F560" t="inlineStr"/>
       <c r="G560" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/07</t>
+          <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
       <c r="C561" t="inlineStr"/>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr">
@@ -15973,1428 +15803,28 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/07</t>
-        </is>
-      </c>
+          <t>Saturday February 15 2025</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr"/>
       <c r="C562" t="inlineStr"/>
       <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr"/>
-      <c r="G562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/07</t>
-        </is>
-      </c>
+          <t>Sunday February 16 2025</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr"/>
       <c r="C563" t="inlineStr"/>
       <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/07</t>
-        </is>
-      </c>
-      <c r="C564" t="inlineStr"/>
-      <c r="D564" t="inlineStr">
-        <is>
-          <t>156.7</t>
-        </is>
-      </c>
-      <c r="E564" t="inlineStr"/>
-      <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C565" t="inlineStr"/>
-      <c r="D565" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E565" t="inlineStr"/>
-      <c r="F565" t="inlineStr"/>
-      <c r="G565" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C566" t="inlineStr"/>
-      <c r="D566" t="inlineStr"/>
-      <c r="E566" t="inlineStr"/>
-      <c r="F566" t="inlineStr"/>
-      <c r="G566" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr"/>
-      <c r="D567" t="inlineStr"/>
-      <c r="E567" t="inlineStr"/>
-      <c r="F567" t="inlineStr"/>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr"/>
-      <c r="D568" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E568" t="inlineStr"/>
-      <c r="F568" t="inlineStr"/>
-      <c r="G568" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>CPIJAN</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr"/>
-      <c r="D569" t="inlineStr">
-        <is>
-          <t>315.61</t>
-        </is>
-      </c>
-      <c r="E569" t="inlineStr"/>
-      <c r="F569" t="inlineStr"/>
-      <c r="G569" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>CPI s.aJAN</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr"/>
-      <c r="D570" t="inlineStr"/>
-      <c r="E570" t="inlineStr"/>
-      <c r="F570" t="inlineStr"/>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Testimony</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr"/>
-      <c r="D571" t="inlineStr"/>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr"/>
-      <c r="G571" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr"/>
-      <c r="D572" t="inlineStr">
-        <is>
-          <t>8.664M</t>
-        </is>
-      </c>
-      <c r="E572" t="inlineStr"/>
-      <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr"/>
-      <c r="D573" t="inlineStr">
-        <is>
-          <t>2.233M</t>
-        </is>
-      </c>
-      <c r="E573" t="inlineStr"/>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C574" t="inlineStr"/>
-      <c r="D574" t="inlineStr"/>
-      <c r="E574" t="inlineStr"/>
-      <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C575" t="inlineStr"/>
-      <c r="D575" t="inlineStr"/>
-      <c r="E575" t="inlineStr"/>
-      <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C576" t="inlineStr"/>
-      <c r="D576" t="inlineStr">
-        <is>
-          <t>-0.186M</t>
-        </is>
-      </c>
-      <c r="E576" t="inlineStr"/>
-      <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr"/>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>-5.471M</t>
-        </is>
-      </c>
-      <c r="E577" t="inlineStr"/>
-      <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr"/>
-      <c r="D578" t="inlineStr"/>
-      <c r="E578" t="inlineStr"/>
-      <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr"/>
-      <c r="D579" t="inlineStr">
-        <is>
-          <t>0.373M</t>
-        </is>
-      </c>
-      <c r="E579" t="inlineStr"/>
-      <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr"/>
-      <c r="E580" t="inlineStr"/>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr"/>
-      <c r="E581" t="inlineStr"/>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr"/>
-      <c r="E582" t="inlineStr"/>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr"/>
-      <c r="D583" t="inlineStr">
-        <is>
-          <t>4.68%</t>
-        </is>
-      </c>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>Thursday February 13 2025</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr"/>
-      <c r="C584" t="inlineStr"/>
-      <c r="D584" t="inlineStr"/>
-      <c r="E584" t="inlineStr"/>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJAN</t>
-        </is>
-      </c>
-      <c r="C585" t="inlineStr"/>
-      <c r="D585" t="inlineStr">
-        <is>
-          <t>$-87B</t>
-        </is>
-      </c>
-      <c r="E585" t="inlineStr"/>
-      <c r="F585" t="inlineStr">
-        <is>
-          <t>$-87.0B</t>
-        </is>
-      </c>
-      <c r="G585" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E586" t="inlineStr"/>
-      <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr"/>
-      <c r="D587" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E587" t="inlineStr"/>
-      <c r="F587" t="inlineStr"/>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr"/>
-      <c r="E588" t="inlineStr"/>
-      <c r="F588" t="inlineStr"/>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/01</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr"/>
-      <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr"/>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E590" t="inlineStr"/>
-      <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/08</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr"/>
-      <c r="E591" t="inlineStr"/>
-      <c r="F591" t="inlineStr"/>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>PPIJAN</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr"/>
-      <c r="D592" t="inlineStr">
-        <is>
-          <t>146.842</t>
-        </is>
-      </c>
-      <c r="E592" t="inlineStr"/>
-      <c r="F592" t="inlineStr"/>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr"/>
-      <c r="D593" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E593" t="inlineStr"/>
-      <c r="F593" t="inlineStr"/>
-      <c r="G593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E594" t="inlineStr"/>
-      <c r="F594" t="inlineStr"/>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E595" t="inlineStr"/>
-      <c r="F595" t="inlineStr"/>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C596" t="inlineStr"/>
-      <c r="D596" t="inlineStr"/>
-      <c r="E596" t="inlineStr"/>
-      <c r="F596" t="inlineStr"/>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C597" t="inlineStr"/>
-      <c r="D597" t="inlineStr"/>
-      <c r="E597" t="inlineStr"/>
-      <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C598" t="inlineStr"/>
-      <c r="D598" t="inlineStr"/>
-      <c r="E598" t="inlineStr"/>
-      <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C599" t="inlineStr"/>
-      <c r="D599" t="inlineStr"/>
-      <c r="E599" t="inlineStr"/>
-      <c r="F599" t="inlineStr"/>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C600" t="inlineStr"/>
-      <c r="D600" t="inlineStr"/>
-      <c r="E600" t="inlineStr"/>
-      <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr">
-        <is>
-          <t>4.913%</t>
-        </is>
-      </c>
-      <c r="E601" t="inlineStr"/>
-      <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr"/>
-      <c r="C602" t="inlineStr"/>
-      <c r="D602" t="inlineStr"/>
-      <c r="E602" t="inlineStr"/>
-      <c r="F602" t="inlineStr"/>
-      <c r="G602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/12</t>
-        </is>
-      </c>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="inlineStr"/>
-      <c r="E603" t="inlineStr"/>
-      <c r="F603" t="inlineStr"/>
-      <c r="G603" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr"/>
-      <c r="D604" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E604" t="inlineStr"/>
-      <c r="F604" t="inlineStr"/>
-      <c r="G604" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E605" t="inlineStr"/>
-      <c r="F605" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G605" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C606" t="inlineStr"/>
-      <c r="D606" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E606" t="inlineStr"/>
-      <c r="F606" t="inlineStr"/>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJAN</t>
-        </is>
-      </c>
-      <c r="C607" t="inlineStr"/>
-      <c r="D607" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E607" t="inlineStr"/>
-      <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr"/>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E608" t="inlineStr"/>
-      <c r="F608" t="inlineStr"/>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E609" t="inlineStr"/>
-      <c r="F609" t="inlineStr"/>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr"/>
-      <c r="D610" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E610" t="inlineStr"/>
-      <c r="F610" t="inlineStr"/>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C611" t="inlineStr"/>
-      <c r="D611" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E611" t="inlineStr"/>
-      <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr"/>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr"/>
-      <c r="F612" t="inlineStr"/>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E613" t="inlineStr"/>
-      <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJAN</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr"/>
-      <c r="D614" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E614" t="inlineStr"/>
-      <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr"/>
-      <c r="D615" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E615" t="inlineStr"/>
-      <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr"/>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E616" t="inlineStr"/>
-      <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr"/>
-      <c r="D617" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E617" t="inlineStr"/>
-      <c r="F617" t="inlineStr"/>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr"/>
-      <c r="D618" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E618" t="inlineStr"/>
-      <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr"/>
-      <c r="D619" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E619" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F619" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr"/>
-      <c r="D620" t="inlineStr"/>
-      <c r="E620" t="inlineStr"/>
-      <c r="F620" t="inlineStr"/>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr"/>
-      <c r="D621" t="inlineStr"/>
-      <c r="E621" t="inlineStr"/>
-      <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>Saturday February 15 2025</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr"/>
-      <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr"/>
-      <c r="E622" t="inlineStr"/>
-      <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr"/>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr"/>
-      <c r="C623" t="inlineStr"/>
-      <c r="D623" t="inlineStr"/>
-      <c r="E623" t="inlineStr"/>
-      <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G624"/>
+  <dimension ref="A1:G564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14448,10 +14448,8 @@
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -14469,10 +14467,8 @@
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G506" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="507">
@@ -14498,10 +14494,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -14531,10 +14525,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G508" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="509">
@@ -14564,10 +14556,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G509" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="510">
@@ -14597,10 +14587,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G510" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -14630,10 +14618,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -14659,10 +14645,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -14688,10 +14672,8 @@
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -14713,10 +14695,8 @@
       </c>
       <c r="E514" t="inlineStr"/>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -14738,10 +14718,8 @@
       </c>
       <c r="E515" t="inlineStr"/>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -14763,10 +14741,8 @@
       </c>
       <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -14788,10 +14764,8 @@
       </c>
       <c r="E517" t="inlineStr"/>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -14809,55 +14783,65 @@
       </c>
       <c r="E518" t="inlineStr"/>
       <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeFEB/07</t>
+        </is>
+      </c>
       <c r="C519" t="inlineStr"/>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr"/>
       <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C520" t="inlineStr"/>
-      <c r="D520" t="inlineStr"/>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>0.373M</t>
+        </is>
+      </c>
       <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
         </is>
       </c>
       <c r="C521" t="inlineStr"/>
@@ -14866,27 +14850,23 @@
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C522" t="inlineStr"/>
-      <c r="D522" t="inlineStr">
-        <is>
-          <t>$6.82T</t>
-        </is>
-      </c>
+      <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr"/>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr">
@@ -14898,127 +14878,83 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="E523" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
-      <c r="F523" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F524" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>4.68%</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 13 2025</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr"/>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E525" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F525" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="inlineStr"/>
+      <c r="G525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Monthly Budget StatementJAN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr"/>
       <c r="D526" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>$-87B</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr"/>
       <c r="F526" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>$-87.0B</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
@@ -15035,24 +14971,20 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="C527" t="inlineStr"/>
       <c r="D527" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
-      <c r="F527" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="F527" t="inlineStr"/>
       <c r="G527" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15064,28 +14996,20 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Core PPI MoMJAN</t>
         </is>
       </c>
       <c r="C528" t="inlineStr"/>
       <c r="D528" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F528" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr"/>
+      <c r="F528" t="inlineStr"/>
       <c r="G528" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15097,24 +15021,16 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Initial Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C529" t="inlineStr"/>
-      <c r="D529" t="inlineStr">
-        <is>
-          <t>33K</t>
-        </is>
-      </c>
+      <c r="D529" t="inlineStr"/>
       <c r="E529" t="inlineStr"/>
-      <c r="F529" t="inlineStr">
-        <is>
-          <t>25K</t>
-        </is>
-      </c>
+      <c r="F529" t="inlineStr"/>
       <c r="G529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15126,25 +15042,13 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Continuing Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="C530" t="inlineStr"/>
-      <c r="D530" t="inlineStr">
-        <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>-2K</t>
-        </is>
-      </c>
-      <c r="F530" t="inlineStr">
-        <is>
-          <t>-5K</t>
-        </is>
-      </c>
+      <c r="D530" t="inlineStr"/>
+      <c r="E530" t="inlineStr"/>
+      <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr">
         <is>
           <t>3</t>
@@ -15159,25 +15063,17 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Core PPI YoYJAN</t>
         </is>
       </c>
       <c r="C531" t="inlineStr"/>
       <c r="D531" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>141K</t>
-        </is>
-      </c>
-      <c r="F531" t="inlineStr">
-        <is>
-          <t>180K</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr"/>
+      <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr">
         <is>
           <t>3</t>
@@ -15192,21 +15088,13 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Jobless Claims 4-week AverageFEB/08</t>
         </is>
       </c>
       <c r="C532" t="inlineStr"/>
-      <c r="D532" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="D532" t="inlineStr"/>
       <c r="E532" t="inlineStr"/>
-      <c r="F532" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
+      <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr">
         <is>
           <t>3</t>
@@ -15216,80 +15104,72 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>07:55 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>PPIJAN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr"/>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>146.842</t>
+        </is>
+      </c>
       <c r="E533" t="inlineStr"/>
       <c r="F533" t="inlineStr"/>
       <c r="G533" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr"/>
       <c r="D534" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="F534" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr"/>
+      <c r="F534" t="inlineStr"/>
       <c r="G534" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
         </is>
       </c>
       <c r="C535" t="inlineStr"/>
       <c r="D535" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E535" t="inlineStr"/>
-      <c r="F535" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr">
         <is>
           <t>3</t>
@@ -15299,30 +15179,22 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr"/>
       <c r="D536" t="inlineStr">
         <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="F536" t="inlineStr">
-        <is>
-          <t>69.5</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr"/>
+      <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr">
         <is>
           <t>3</t>
@@ -15332,30 +15204,18 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C537" t="inlineStr"/>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+      <c r="D537" t="inlineStr"/>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr">
         <is>
           <t>3</t>
@@ -15365,26 +15225,18 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr"/>
-      <c r="F538" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr">
         <is>
           <t>3</t>
@@ -15394,30 +15246,18 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C539" t="inlineStr"/>
-      <c r="D539" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F539" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D539" t="inlineStr"/>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr">
         <is>
           <t>3</t>
@@ -15432,7 +15272,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>15-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C540" t="inlineStr"/>
@@ -15441,27 +15281,23 @@
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>30-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C541" t="inlineStr"/>
-      <c r="D541" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
+      <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr"/>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr">
@@ -15478,13 +15314,13 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C542" t="inlineStr"/>
       <c r="D542" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>4.913%</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -15496,39 +15332,31 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" t="inlineStr"/>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Friday February 14 2025</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr"/>
       <c r="C543" t="inlineStr"/>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G543" t="inlineStr"/>
     </row>
     <row r="544">
-      <c r="A544" t="inlineStr"/>
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Fed Balance SheetFEB/12</t>
         </is>
       </c>
       <c r="C544" t="inlineStr"/>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr">
@@ -15540,115 +15368,147 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMJAN</t>
+        </is>
+      </c>
       <c r="C545" t="inlineStr"/>
-      <c r="D545" t="inlineStr"/>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E545" t="inlineStr"/>
       <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>Export Prices MoMJAN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>$12.35B</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr">
         <is>
-          <t>$ 18B</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Import Prices MoMJAN</t>
+        </is>
+      </c>
       <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr"/>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr"/>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Retail Sales Control Group MoMJAN</t>
+        </is>
+      </c>
       <c r="C548" t="inlineStr"/>
-      <c r="D548" t="inlineStr"/>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr"/>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
       <c r="C549" t="inlineStr"/>
       <c r="D549" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Export Prices YoYJAN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr"/>
       <c r="D550" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="E550" t="inlineStr"/>
@@ -15662,18 +15522,18 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Import Prices YoYJAN</t>
         </is>
       </c>
       <c r="C551" t="inlineStr"/>
       <c r="D551" t="inlineStr">
         <is>
-          <t>4.155%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
@@ -15687,31 +15547,43 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+        </is>
+      </c>
       <c r="C552" t="inlineStr"/>
-      <c r="D552" t="inlineStr"/>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr"/>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJAN</t>
+          <t>Retail Sales YoYJAN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr"/>
       <c r="D553" t="inlineStr">
         <is>
-          <t>105.1</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E553" t="inlineStr"/>
@@ -15725,16 +15597,20 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>07:20 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Industrial Production MoMJAN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="E554" t="inlineStr"/>
       <c r="F554" t="inlineStr"/>
       <c r="G554" t="inlineStr">
@@ -15746,18 +15622,18 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/08</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>77.6%</t>
         </is>
       </c>
       <c r="E555" t="inlineStr"/>
@@ -15771,18 +15647,18 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Total Household DebtQ4</t>
+          <t>Industrial Production YoYJAN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr"/>
       <c r="D556" t="inlineStr">
         <is>
-          <t>$17.9T</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
@@ -15796,16 +15672,20 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Manufacturing Production MoMJAN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr"/>
-      <c r="D557" t="inlineStr"/>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="E557" t="inlineStr"/>
       <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr">
@@ -15817,18 +15697,18 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Manufacturing Production YoYJAN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr"/>
       <c r="D558" t="inlineStr">
         <is>
-          <t>4.332%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E558" t="inlineStr"/>
@@ -15842,83 +15722,95 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Wednesday February 12 2025</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Business Inventories MoMDEC</t>
+        </is>
+      </c>
       <c r="C559" t="inlineStr"/>
-      <c r="D559" t="inlineStr"/>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E559" t="inlineStr"/>
       <c r="F559" t="inlineStr"/>
-      <c r="G559" t="inlineStr"/>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/07</t>
+          <t>Retail Inventories Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C560" t="inlineStr"/>
       <c r="D560" t="inlineStr">
         <is>
-          <t>5.025M</t>
-        </is>
-      </c>
-      <c r="E560" t="inlineStr"/>
-      <c r="F560" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/07</t>
+          <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
       <c r="C561" t="inlineStr"/>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>6.97%</t>
-        </is>
-      </c>
+      <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/07</t>
+          <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
-      <c r="D562" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr">
@@ -15930,1428 +15822,28 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/07</t>
-        </is>
-      </c>
+          <t>Saturday February 15 2025</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr"/>
       <c r="C563" t="inlineStr"/>
       <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/07</t>
-        </is>
-      </c>
+          <t>Sunday February 16 2025</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr"/>
       <c r="C564" t="inlineStr"/>
       <c r="D564" t="inlineStr"/>
       <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/07</t>
-        </is>
-      </c>
-      <c r="C565" t="inlineStr"/>
-      <c r="D565" t="inlineStr">
-        <is>
-          <t>156.7</t>
-        </is>
-      </c>
-      <c r="E565" t="inlineStr"/>
-      <c r="F565" t="inlineStr"/>
-      <c r="G565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C566" t="inlineStr"/>
-      <c r="D566" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E566" t="inlineStr"/>
-      <c r="F566" t="inlineStr"/>
-      <c r="G566" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr"/>
-      <c r="D567" t="inlineStr"/>
-      <c r="E567" t="inlineStr"/>
-      <c r="F567" t="inlineStr"/>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr"/>
-      <c r="D568" t="inlineStr"/>
-      <c r="E568" t="inlineStr"/>
-      <c r="F568" t="inlineStr"/>
-      <c r="G568" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr"/>
-      <c r="D569" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E569" t="inlineStr"/>
-      <c r="F569" t="inlineStr"/>
-      <c r="G569" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>CPIJAN</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr"/>
-      <c r="D570" t="inlineStr">
-        <is>
-          <t>315.61</t>
-        </is>
-      </c>
-      <c r="E570" t="inlineStr"/>
-      <c r="F570" t="inlineStr"/>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>CPI s.aJAN</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr"/>
-      <c r="D571" t="inlineStr"/>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr"/>
-      <c r="G571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Testimony</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr"/>
-      <c r="D572" t="inlineStr"/>
-      <c r="E572" t="inlineStr"/>
-      <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr"/>
-      <c r="D573" t="inlineStr">
-        <is>
-          <t>8.664M</t>
-        </is>
-      </c>
-      <c r="E573" t="inlineStr"/>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C574" t="inlineStr"/>
-      <c r="D574" t="inlineStr">
-        <is>
-          <t>2.233M</t>
-        </is>
-      </c>
-      <c r="E574" t="inlineStr"/>
-      <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C575" t="inlineStr"/>
-      <c r="D575" t="inlineStr"/>
-      <c r="E575" t="inlineStr"/>
-      <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C576" t="inlineStr"/>
-      <c r="D576" t="inlineStr"/>
-      <c r="E576" t="inlineStr"/>
-      <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr"/>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>-0.186M</t>
-        </is>
-      </c>
-      <c r="E577" t="inlineStr"/>
-      <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr"/>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>-5.471M</t>
-        </is>
-      </c>
-      <c r="E578" t="inlineStr"/>
-      <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr"/>
-      <c r="D579" t="inlineStr"/>
-      <c r="E579" t="inlineStr"/>
-      <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>0.373M</t>
-        </is>
-      </c>
-      <c r="E580" t="inlineStr"/>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr"/>
-      <c r="E581" t="inlineStr"/>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr"/>
-      <c r="E582" t="inlineStr"/>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr"/>
-      <c r="D583" t="inlineStr"/>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr"/>
-      <c r="D584" t="inlineStr">
-        <is>
-          <t>4.68%</t>
-        </is>
-      </c>
-      <c r="E584" t="inlineStr"/>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>Thursday February 13 2025</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr"/>
-      <c r="C585" t="inlineStr"/>
-      <c r="D585" t="inlineStr"/>
-      <c r="E585" t="inlineStr"/>
-      <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJAN</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr">
-        <is>
-          <t>$-87B</t>
-        </is>
-      </c>
-      <c r="E586" t="inlineStr"/>
-      <c r="F586" t="inlineStr">
-        <is>
-          <t>$-87.0B</t>
-        </is>
-      </c>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr"/>
-      <c r="D587" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E587" t="inlineStr"/>
-      <c r="F587" t="inlineStr"/>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E588" t="inlineStr"/>
-      <c r="F588" t="inlineStr"/>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr"/>
-      <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/01</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr"/>
-      <c r="D590" t="inlineStr"/>
-      <c r="E590" t="inlineStr"/>
-      <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E591" t="inlineStr"/>
-      <c r="F591" t="inlineStr"/>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/08</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr"/>
-      <c r="D592" t="inlineStr"/>
-      <c r="E592" t="inlineStr"/>
-      <c r="F592" t="inlineStr"/>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>PPIJAN</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr"/>
-      <c r="D593" t="inlineStr">
-        <is>
-          <t>146.842</t>
-        </is>
-      </c>
-      <c r="E593" t="inlineStr"/>
-      <c r="F593" t="inlineStr"/>
-      <c r="G593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E594" t="inlineStr"/>
-      <c r="F594" t="inlineStr"/>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E595" t="inlineStr"/>
-      <c r="F595" t="inlineStr"/>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C596" t="inlineStr"/>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E596" t="inlineStr"/>
-      <c r="F596" t="inlineStr"/>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C597" t="inlineStr"/>
-      <c r="D597" t="inlineStr"/>
-      <c r="E597" t="inlineStr"/>
-      <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C598" t="inlineStr"/>
-      <c r="D598" t="inlineStr"/>
-      <c r="E598" t="inlineStr"/>
-      <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C599" t="inlineStr"/>
-      <c r="D599" t="inlineStr"/>
-      <c r="E599" t="inlineStr"/>
-      <c r="F599" t="inlineStr"/>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C600" t="inlineStr"/>
-      <c r="D600" t="inlineStr"/>
-      <c r="E600" t="inlineStr"/>
-      <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr"/>
-      <c r="E601" t="inlineStr"/>
-      <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C602" t="inlineStr"/>
-      <c r="D602" t="inlineStr">
-        <is>
-          <t>4.913%</t>
-        </is>
-      </c>
-      <c r="E602" t="inlineStr"/>
-      <c r="F602" t="inlineStr"/>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr"/>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="inlineStr"/>
-      <c r="E603" t="inlineStr"/>
-      <c r="F603" t="inlineStr"/>
-      <c r="G603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/12</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr"/>
-      <c r="D604" t="inlineStr"/>
-      <c r="E604" t="inlineStr"/>
-      <c r="F604" t="inlineStr"/>
-      <c r="G604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E605" t="inlineStr"/>
-      <c r="F605" t="inlineStr"/>
-      <c r="G605" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C606" t="inlineStr"/>
-      <c r="D606" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E606" t="inlineStr"/>
-      <c r="F606" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C607" t="inlineStr"/>
-      <c r="D607" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E607" t="inlineStr"/>
-      <c r="F607" t="inlineStr"/>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJAN</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr"/>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E608" t="inlineStr"/>
-      <c r="F608" t="inlineStr"/>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E609" t="inlineStr"/>
-      <c r="F609" t="inlineStr"/>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr"/>
-      <c r="D610" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E610" t="inlineStr"/>
-      <c r="F610" t="inlineStr"/>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C611" t="inlineStr"/>
-      <c r="D611" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E611" t="inlineStr"/>
-      <c r="F611" t="inlineStr"/>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr"/>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr"/>
-      <c r="F612" t="inlineStr"/>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E613" t="inlineStr"/>
-      <c r="F613" t="inlineStr"/>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr"/>
-      <c r="D614" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E614" t="inlineStr"/>
-      <c r="F614" t="inlineStr"/>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJAN</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr"/>
-      <c r="D615" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E615" t="inlineStr"/>
-      <c r="F615" t="inlineStr"/>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr"/>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E616" t="inlineStr"/>
-      <c r="F616" t="inlineStr"/>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr"/>
-      <c r="D617" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E617" t="inlineStr"/>
-      <c r="F617" t="inlineStr"/>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr"/>
-      <c r="D618" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E618" t="inlineStr"/>
-      <c r="F618" t="inlineStr"/>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr"/>
-      <c r="D619" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E619" t="inlineStr"/>
-      <c r="F619" t="inlineStr"/>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr"/>
-      <c r="D620" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E620" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F620" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr"/>
-      <c r="D621" t="inlineStr"/>
-      <c r="E621" t="inlineStr"/>
-      <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr"/>
-      <c r="E622" t="inlineStr"/>
-      <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>Saturday February 15 2025</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr"/>
-      <c r="C623" t="inlineStr"/>
-      <c r="D623" t="inlineStr"/>
-      <c r="E623" t="inlineStr"/>
-      <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr"/>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B624" t="inlineStr"/>
-      <c r="C624" t="inlineStr"/>
-      <c r="D624" t="inlineStr"/>
-      <c r="E624" t="inlineStr"/>
-      <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr"/>
+      <c r="G564" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G624"/>
+  <dimension ref="A1:G564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14448,10 +14448,8 @@
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -14469,10 +14467,8 @@
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G506" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="507">
@@ -14502,10 +14498,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -14535,10 +14529,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G508" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="509">
@@ -14568,10 +14560,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G509" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="510">
@@ -14601,10 +14591,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G510" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -14634,10 +14622,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -14663,10 +14649,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -14692,10 +14676,8 @@
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -14717,10 +14699,8 @@
       </c>
       <c r="E514" t="inlineStr"/>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -14742,10 +14722,8 @@
       </c>
       <c r="E515" t="inlineStr"/>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -14767,10 +14745,8 @@
       </c>
       <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -14792,10 +14768,8 @@
       </c>
       <c r="E517" t="inlineStr"/>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -14813,82 +14787,100 @@
       </c>
       <c r="E518" t="inlineStr"/>
       <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeFEB/07</t>
+        </is>
+      </c>
       <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr"/>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>-0.027M</t>
+        </is>
+      </c>
       <c r="E519" t="inlineStr"/>
       <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C520" t="inlineStr"/>
-      <c r="D520" t="inlineStr"/>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>0.373M</t>
+        </is>
+      </c>
       <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
         </is>
       </c>
       <c r="C521" t="inlineStr"/>
-      <c r="D521" t="inlineStr"/>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>0.16M</t>
+        </is>
+      </c>
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C522" t="inlineStr"/>
       <c r="D522" t="inlineStr">
         <is>
-          <t>$6.82T</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -14902,127 +14894,83 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="E523" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
-      <c r="F523" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F524" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>4.68%</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 13 2025</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr"/>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E525" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F525" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="inlineStr"/>
+      <c r="G525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Monthly Budget StatementJAN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr"/>
       <c r="D526" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>$-87B</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr"/>
       <c r="F526" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>$-93.0B</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
@@ -15039,24 +14987,24 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="C527" t="inlineStr"/>
       <c r="D527" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
       <c r="F527" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15068,28 +15016,24 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Core PPI MoMJAN</t>
         </is>
       </c>
       <c r="C528" t="inlineStr"/>
       <c r="D528" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr"/>
       <c r="F528" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15101,24 +15045,24 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Initial Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C529" t="inlineStr"/>
       <c r="D529" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>219K</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>215.0K</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15130,23 +15074,19 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Continuing Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="C530" t="inlineStr"/>
       <c r="D530" t="inlineStr">
         <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>-2K</t>
-        </is>
-      </c>
+          <t>1886K</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>1875.0K</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
@@ -15163,23 +15103,19 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Core PPI YoYJAN</t>
         </is>
       </c>
       <c r="C531" t="inlineStr"/>
       <c r="D531" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>141K</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
@@ -15196,19 +15132,19 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Jobless Claims 4-week AverageFEB/08</t>
         </is>
       </c>
       <c r="C532" t="inlineStr"/>
       <c r="D532" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>216.75K</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>216.0K</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
@@ -15220,72 +15156,76 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>07:55 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>PPIJAN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr"/>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>146.842</t>
+        </is>
+      </c>
       <c r="E533" t="inlineStr"/>
-      <c r="F533" t="inlineStr"/>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>147.2</t>
+        </is>
+      </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr"/>
       <c r="D534" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr"/>
       <c r="F534" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
         </is>
       </c>
       <c r="C535" t="inlineStr"/>
       <c r="D535" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E535" t="inlineStr"/>
@@ -15303,28 +15243,24 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr"/>
       <c r="D536" t="inlineStr">
         <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
@@ -15336,30 +15272,18 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C537" t="inlineStr"/>
-      <c r="D537" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+      <c r="D537" t="inlineStr"/>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr">
         <is>
           <t>3</t>
@@ -15369,26 +15293,18 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr"/>
-      <c r="F538" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr">
         <is>
           <t>3</t>
@@ -15398,30 +15314,18 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C539" t="inlineStr"/>
-      <c r="D539" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F539" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D539" t="inlineStr"/>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr">
         <is>
           <t>3</t>
@@ -15436,7 +15340,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>15-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C540" t="inlineStr"/>
@@ -15445,27 +15349,23 @@
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>30-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C541" t="inlineStr"/>
-      <c r="D541" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
+      <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr"/>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr">
@@ -15482,13 +15382,13 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C542" t="inlineStr"/>
       <c r="D542" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>4.913%</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -15500,39 +15400,31 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" t="inlineStr"/>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Friday February 14 2025</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr"/>
       <c r="C543" t="inlineStr"/>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G543" t="inlineStr"/>
     </row>
     <row r="544">
-      <c r="A544" t="inlineStr"/>
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Fed Balance SheetFEB/12</t>
         </is>
       </c>
       <c r="C544" t="inlineStr"/>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr">
@@ -15544,119 +15436,171 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMJAN</t>
+        </is>
+      </c>
       <c r="C545" t="inlineStr"/>
-      <c r="D545" t="inlineStr"/>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E545" t="inlineStr"/>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>Export Prices MoMJAN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>$12.35B</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr">
         <is>
-          <t>$ 18B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Import Prices MoMJAN</t>
+        </is>
+      </c>
       <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr"/>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E547" t="inlineStr"/>
-      <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr"/>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Retail Sales Control Group MoMJAN</t>
+        </is>
+      </c>
       <c r="C548" t="inlineStr"/>
-      <c r="D548" t="inlineStr"/>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="E548" t="inlineStr"/>
-      <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr"/>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
       <c r="C549" t="inlineStr"/>
       <c r="D549" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
-      <c r="F549" t="inlineStr"/>
+      <c r="F549" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Export Prices YoYJAN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr"/>
       <c r="D550" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="E550" t="inlineStr"/>
-      <c r="F550" t="inlineStr"/>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="G550" t="inlineStr">
         <is>
           <t>3</t>
@@ -15666,22 +15610,26 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Import Prices YoYJAN</t>
         </is>
       </c>
       <c r="C551" t="inlineStr"/>
       <c r="D551" t="inlineStr">
         <is>
-          <t>4.155%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
-      <c r="F551" t="inlineStr"/>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G551" t="inlineStr">
         <is>
           <t>3</t>
@@ -15691,35 +15639,55 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+        </is>
+      </c>
       <c r="C552" t="inlineStr"/>
-      <c r="D552" t="inlineStr"/>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E552" t="inlineStr"/>
-      <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr"/>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJAN</t>
+          <t>Retail Sales YoYJAN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr"/>
       <c r="D553" t="inlineStr">
         <is>
-          <t>105.1</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E553" t="inlineStr"/>
-      <c r="F553" t="inlineStr"/>
+      <c r="F553" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
       <c r="G553" t="inlineStr">
         <is>
           <t>3</t>
@@ -15729,18 +15697,26 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>07:20 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Industrial Production MoMJAN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="E554" t="inlineStr"/>
-      <c r="F554" t="inlineStr"/>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G554" t="inlineStr">
         <is>
           <t>2</t>
@@ -15750,22 +15726,26 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/08</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>77.6%</t>
         </is>
       </c>
       <c r="E555" t="inlineStr"/>
-      <c r="F555" t="inlineStr"/>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>77.4%</t>
+        </is>
+      </c>
       <c r="G555" t="inlineStr">
         <is>
           <t>3</t>
@@ -15775,22 +15755,26 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Total Household DebtQ4</t>
+          <t>Industrial Production YoYJAN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr"/>
       <c r="D556" t="inlineStr">
         <is>
-          <t>$17.9T</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
-      <c r="F556" t="inlineStr"/>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G556" t="inlineStr">
         <is>
           <t>3</t>
@@ -15800,18 +15784,26 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Manufacturing Production MoMJAN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr"/>
-      <c r="D557" t="inlineStr"/>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="E557" t="inlineStr"/>
-      <c r="F557" t="inlineStr"/>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G557" t="inlineStr">
         <is>
           <t>3</t>
@@ -15821,22 +15813,26 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Manufacturing Production YoYJAN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr"/>
       <c r="D558" t="inlineStr">
         <is>
-          <t>4.332%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E558" t="inlineStr"/>
-      <c r="F558" t="inlineStr"/>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="G558" t="inlineStr">
         <is>
           <t>3</t>
@@ -15846,83 +15842,99 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Wednesday February 12 2025</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Business Inventories MoMDEC</t>
+        </is>
+      </c>
       <c r="C559" t="inlineStr"/>
-      <c r="D559" t="inlineStr"/>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E559" t="inlineStr"/>
-      <c r="F559" t="inlineStr"/>
-      <c r="G559" t="inlineStr"/>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/07</t>
+          <t>Retail Inventories Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C560" t="inlineStr"/>
       <c r="D560" t="inlineStr">
         <is>
-          <t>5.025M</t>
-        </is>
-      </c>
-      <c r="E560" t="inlineStr"/>
-      <c r="F560" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/07</t>
+          <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
       <c r="C561" t="inlineStr"/>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>6.97%</t>
-        </is>
-      </c>
+      <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/07</t>
+          <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
-      <c r="D562" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr">
@@ -15934,1576 +15946,28 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/07</t>
-        </is>
-      </c>
+          <t>Saturday February 15 2025</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr"/>
       <c r="C563" t="inlineStr"/>
-      <c r="D563" t="inlineStr">
-        <is>
-          <t>224.8</t>
-        </is>
-      </c>
+      <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/07</t>
-        </is>
-      </c>
+          <t>Sunday February 16 2025</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr"/>
       <c r="C564" t="inlineStr"/>
-      <c r="D564" t="inlineStr">
-        <is>
-          <t>584.3</t>
-        </is>
-      </c>
+      <c r="D564" t="inlineStr"/>
       <c r="E564" t="inlineStr"/>
       <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/07</t>
-        </is>
-      </c>
-      <c r="C565" t="inlineStr"/>
-      <c r="D565" t="inlineStr">
-        <is>
-          <t>156.7</t>
-        </is>
-      </c>
-      <c r="E565" t="inlineStr"/>
-      <c r="F565" t="inlineStr"/>
-      <c r="G565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C566" t="inlineStr"/>
-      <c r="D566" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E566" t="inlineStr"/>
-      <c r="F566" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G566" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr"/>
-      <c r="D567" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E567" t="inlineStr"/>
-      <c r="F567" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr"/>
-      <c r="D568" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E568" t="inlineStr"/>
-      <c r="F568" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G568" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr"/>
-      <c r="D569" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E569" t="inlineStr"/>
-      <c r="F569" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G569" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>CPIJAN</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr"/>
-      <c r="D570" t="inlineStr">
-        <is>
-          <t>315.61</t>
-        </is>
-      </c>
-      <c r="E570" t="inlineStr"/>
-      <c r="F570" t="inlineStr">
-        <is>
-          <t>317.3</t>
-        </is>
-      </c>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>CPI s.aJAN</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr"/>
-      <c r="D571" t="inlineStr">
-        <is>
-          <t>317.685</t>
-        </is>
-      </c>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr">
-        <is>
-          <t>318.2</t>
-        </is>
-      </c>
-      <c r="G571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Testimony</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr"/>
-      <c r="D572" t="inlineStr"/>
-      <c r="E572" t="inlineStr"/>
-      <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr"/>
-      <c r="D573" t="inlineStr">
-        <is>
-          <t>8.664M</t>
-        </is>
-      </c>
-      <c r="E573" t="inlineStr"/>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C574" t="inlineStr"/>
-      <c r="D574" t="inlineStr">
-        <is>
-          <t>2.233M</t>
-        </is>
-      </c>
-      <c r="E574" t="inlineStr"/>
-      <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C575" t="inlineStr"/>
-      <c r="D575" t="inlineStr">
-        <is>
-          <t>-0.178M</t>
-        </is>
-      </c>
-      <c r="E575" t="inlineStr"/>
-      <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C576" t="inlineStr"/>
-      <c r="D576" t="inlineStr">
-        <is>
-          <t>-0.034M</t>
-        </is>
-      </c>
-      <c r="E576" t="inlineStr"/>
-      <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr"/>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>-0.186M</t>
-        </is>
-      </c>
-      <c r="E577" t="inlineStr"/>
-      <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr"/>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>-5.471M</t>
-        </is>
-      </c>
-      <c r="E578" t="inlineStr"/>
-      <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr"/>
-      <c r="D579" t="inlineStr">
-        <is>
-          <t>-0.027M</t>
-        </is>
-      </c>
-      <c r="E579" t="inlineStr"/>
-      <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>0.373M</t>
-        </is>
-      </c>
-      <c r="E580" t="inlineStr"/>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>0.16M</t>
-        </is>
-      </c>
-      <c r="E581" t="inlineStr"/>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E582" t="inlineStr"/>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr"/>
-      <c r="D583" t="inlineStr"/>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr"/>
-      <c r="D584" t="inlineStr">
-        <is>
-          <t>4.68%</t>
-        </is>
-      </c>
-      <c r="E584" t="inlineStr"/>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>Thursday February 13 2025</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr"/>
-      <c r="C585" t="inlineStr"/>
-      <c r="D585" t="inlineStr"/>
-      <c r="E585" t="inlineStr"/>
-      <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJAN</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr">
-        <is>
-          <t>$-87B</t>
-        </is>
-      </c>
-      <c r="E586" t="inlineStr"/>
-      <c r="F586" t="inlineStr">
-        <is>
-          <t>$-93.0B</t>
-        </is>
-      </c>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr"/>
-      <c r="D587" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E587" t="inlineStr"/>
-      <c r="F587" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E588" t="inlineStr"/>
-      <c r="F588" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr"/>
-      <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr"/>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/01</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr"/>
-      <c r="D590" t="inlineStr"/>
-      <c r="E590" t="inlineStr"/>
-      <c r="F590" t="inlineStr"/>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E591" t="inlineStr"/>
-      <c r="F591" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/08</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr"/>
-      <c r="D592" t="inlineStr"/>
-      <c r="E592" t="inlineStr"/>
-      <c r="F592" t="inlineStr"/>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>PPIJAN</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr"/>
-      <c r="D593" t="inlineStr">
-        <is>
-          <t>146.842</t>
-        </is>
-      </c>
-      <c r="E593" t="inlineStr"/>
-      <c r="F593" t="inlineStr">
-        <is>
-          <t>147.2</t>
-        </is>
-      </c>
-      <c r="G593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E594" t="inlineStr"/>
-      <c r="F594" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E595" t="inlineStr"/>
-      <c r="F595" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C596" t="inlineStr"/>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E596" t="inlineStr"/>
-      <c r="F596" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C597" t="inlineStr"/>
-      <c r="D597" t="inlineStr"/>
-      <c r="E597" t="inlineStr"/>
-      <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C598" t="inlineStr"/>
-      <c r="D598" t="inlineStr"/>
-      <c r="E598" t="inlineStr"/>
-      <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C599" t="inlineStr"/>
-      <c r="D599" t="inlineStr"/>
-      <c r="E599" t="inlineStr"/>
-      <c r="F599" t="inlineStr"/>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C600" t="inlineStr"/>
-      <c r="D600" t="inlineStr"/>
-      <c r="E600" t="inlineStr"/>
-      <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr"/>
-      <c r="E601" t="inlineStr"/>
-      <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C602" t="inlineStr"/>
-      <c r="D602" t="inlineStr">
-        <is>
-          <t>4.913%</t>
-        </is>
-      </c>
-      <c r="E602" t="inlineStr"/>
-      <c r="F602" t="inlineStr"/>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr"/>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="inlineStr"/>
-      <c r="E603" t="inlineStr"/>
-      <c r="F603" t="inlineStr"/>
-      <c r="G603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/12</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr"/>
-      <c r="D604" t="inlineStr"/>
-      <c r="E604" t="inlineStr"/>
-      <c r="F604" t="inlineStr"/>
-      <c r="G604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E605" t="inlineStr"/>
-      <c r="F605" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G605" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C606" t="inlineStr"/>
-      <c r="D606" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E606" t="inlineStr"/>
-      <c r="F606" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C607" t="inlineStr"/>
-      <c r="D607" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E607" t="inlineStr"/>
-      <c r="F607" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJAN</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr"/>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E608" t="inlineStr"/>
-      <c r="F608" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E609" t="inlineStr"/>
-      <c r="F609" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr"/>
-      <c r="D610" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E610" t="inlineStr"/>
-      <c r="F610" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C611" t="inlineStr"/>
-      <c r="D611" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E611" t="inlineStr"/>
-      <c r="F611" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr"/>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr"/>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E613" t="inlineStr"/>
-      <c r="F613" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr"/>
-      <c r="D614" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E614" t="inlineStr"/>
-      <c r="F614" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJAN</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr"/>
-      <c r="D615" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E615" t="inlineStr"/>
-      <c r="F615" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr"/>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E616" t="inlineStr"/>
-      <c r="F616" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr"/>
-      <c r="D617" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E617" t="inlineStr"/>
-      <c r="F617" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr"/>
-      <c r="D618" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E618" t="inlineStr"/>
-      <c r="F618" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr"/>
-      <c r="D619" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E619" t="inlineStr"/>
-      <c r="F619" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr"/>
-      <c r="D620" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E620" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F620" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr"/>
-      <c r="D621" t="inlineStr"/>
-      <c r="E621" t="inlineStr"/>
-      <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr"/>
-      <c r="E622" t="inlineStr"/>
-      <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>Saturday February 15 2025</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr"/>
-      <c r="C623" t="inlineStr"/>
-      <c r="D623" t="inlineStr"/>
-      <c r="E623" t="inlineStr"/>
-      <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr"/>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B624" t="inlineStr"/>
-      <c r="C624" t="inlineStr"/>
-      <c r="D624" t="inlineStr"/>
-      <c r="E624" t="inlineStr"/>
-      <c r="F624" t="inlineStr"/>
-      <c r="G624" t="inlineStr"/>
+      <c r="G564" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G623"/>
+  <dimension ref="A1:G563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14448,10 +14448,8 @@
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -14469,10 +14467,8 @@
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G506" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="507">
@@ -14502,10 +14498,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -14539,10 +14533,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G508" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="509">
@@ -14576,10 +14568,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G509" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="510">
@@ -14613,10 +14603,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G510" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -14650,10 +14638,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -14683,10 +14669,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -14712,10 +14696,8 @@
       </c>
       <c r="E513" t="inlineStr"/>
       <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -14745,10 +14727,8 @@
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -14770,10 +14750,8 @@
       </c>
       <c r="E515" t="inlineStr"/>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -14795,10 +14773,8 @@
       </c>
       <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -14820,10 +14796,8 @@
       </c>
       <c r="E517" t="inlineStr"/>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -14845,82 +14819,100 @@
       </c>
       <c r="E518" t="inlineStr"/>
       <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeFEB/07</t>
+        </is>
+      </c>
       <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr"/>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>-0.027M</t>
+        </is>
+      </c>
       <c r="E519" t="inlineStr"/>
       <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C520" t="inlineStr"/>
-      <c r="D520" t="inlineStr"/>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>0.373M</t>
+        </is>
+      </c>
       <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
         </is>
       </c>
       <c r="C521" t="inlineStr"/>
-      <c r="D521" t="inlineStr"/>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>0.16M</t>
+        </is>
+      </c>
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C522" t="inlineStr"/>
       <c r="D522" t="inlineStr">
         <is>
-          <t>$6.82T</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -14934,127 +14926,83 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="E523" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
-      <c r="F523" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F524" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>4.68%</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 13 2025</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr"/>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E525" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F525" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="inlineStr"/>
+      <c r="G525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Monthly Budget StatementJAN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr"/>
       <c r="D526" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>$-87B</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr"/>
       <c r="F526" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>$-93.0B</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
@@ -15071,24 +15019,24 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="C527" t="inlineStr"/>
       <c r="D527" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
       <c r="F527" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15100,28 +15048,24 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Core PPI MoMJAN</t>
         </is>
       </c>
       <c r="C528" t="inlineStr"/>
       <c r="D528" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr"/>
       <c r="F528" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15133,24 +15077,24 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Initial Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C529" t="inlineStr"/>
       <c r="D529" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>219K</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>215.0K</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15162,23 +15106,19 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Continuing Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="C530" t="inlineStr"/>
       <c r="D530" t="inlineStr">
         <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>-2K</t>
-        </is>
-      </c>
+          <t>1886K</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>1875.0K</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
@@ -15195,23 +15135,19 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Core PPI YoYJAN</t>
         </is>
       </c>
       <c r="C531" t="inlineStr"/>
       <c r="D531" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>141K</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
@@ -15228,19 +15164,19 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Jobless Claims 4-week AverageFEB/08</t>
         </is>
       </c>
       <c r="C532" t="inlineStr"/>
       <c r="D532" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>216.75K</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>216.0K</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
@@ -15252,72 +15188,76 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>07:55 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>PPIJAN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr"/>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>146.842</t>
+        </is>
+      </c>
       <c r="E533" t="inlineStr"/>
-      <c r="F533" t="inlineStr"/>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>147.2</t>
+        </is>
+      </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr"/>
       <c r="D534" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr"/>
       <c r="F534" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
         </is>
       </c>
       <c r="C535" t="inlineStr"/>
       <c r="D535" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E535" t="inlineStr"/>
@@ -15335,28 +15275,24 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr"/>
       <c r="D536" t="inlineStr">
         <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
@@ -15368,30 +15304,22 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+          <t>-174Bcf</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr">
         <is>
           <t>3</t>
@@ -15401,26 +15329,18 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr"/>
-      <c r="F538" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr">
         <is>
           <t>3</t>
@@ -15430,30 +15350,18 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C539" t="inlineStr"/>
-      <c r="D539" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F539" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D539" t="inlineStr"/>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr">
         <is>
           <t>3</t>
@@ -15468,36 +15376,36 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>15-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C540" t="inlineStr"/>
-      <c r="D540" t="inlineStr"/>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>6.05%</t>
+        </is>
+      </c>
       <c r="E540" t="inlineStr"/>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>30-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C541" t="inlineStr"/>
-      <c r="D541" t="inlineStr">
-        <is>
-          <t>479</t>
-        </is>
-      </c>
+      <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr"/>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr">
@@ -15514,13 +15422,13 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C542" t="inlineStr"/>
       <c r="D542" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>4.913%</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -15532,39 +15440,31 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" t="inlineStr"/>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Friday February 14 2025</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr"/>
       <c r="C543" t="inlineStr"/>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G543" t="inlineStr"/>
     </row>
     <row r="544">
-      <c r="A544" t="inlineStr"/>
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Fed Balance SheetFEB/12</t>
         </is>
       </c>
       <c r="C544" t="inlineStr"/>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr">
@@ -15576,123 +15476,171 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMJAN</t>
+        </is>
+      </c>
       <c r="C545" t="inlineStr"/>
-      <c r="D545" t="inlineStr"/>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E545" t="inlineStr"/>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>Export Prices MoMJAN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>$12.35B</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr">
         <is>
-          <t>$ 18B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Import Prices MoMJAN</t>
+        </is>
+      </c>
       <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr"/>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E547" t="inlineStr"/>
-      <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr"/>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Retail Sales Control Group MoMJAN</t>
+        </is>
+      </c>
       <c r="C548" t="inlineStr"/>
-      <c r="D548" t="inlineStr"/>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="E548" t="inlineStr"/>
-      <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr"/>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
       <c r="C549" t="inlineStr"/>
       <c r="D549" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Export Prices YoYJAN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr"/>
       <c r="D550" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="E550" t="inlineStr"/>
-      <c r="F550" t="inlineStr"/>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="G550" t="inlineStr">
         <is>
           <t>3</t>
@@ -15702,22 +15650,26 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Import Prices YoYJAN</t>
         </is>
       </c>
       <c r="C551" t="inlineStr"/>
       <c r="D551" t="inlineStr">
         <is>
-          <t>4.155%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
-      <c r="F551" t="inlineStr"/>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G551" t="inlineStr">
         <is>
           <t>3</t>
@@ -15727,37 +15679,53 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+        </is>
+      </c>
       <c r="C552" t="inlineStr"/>
-      <c r="D552" t="inlineStr"/>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E552" t="inlineStr"/>
-      <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr"/>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJAN</t>
+          <t>Retail Sales YoYJAN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr"/>
       <c r="D553" t="inlineStr">
         <is>
-          <t>105.1</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
@@ -15769,18 +15737,26 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>07:20 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Industrial Production MoMJAN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="E554" t="inlineStr"/>
-      <c r="F554" t="inlineStr"/>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G554" t="inlineStr">
         <is>
           <t>2</t>
@@ -15790,22 +15766,26 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/08</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>77.6%</t>
         </is>
       </c>
       <c r="E555" t="inlineStr"/>
-      <c r="F555" t="inlineStr"/>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>77.4%</t>
+        </is>
+      </c>
       <c r="G555" t="inlineStr">
         <is>
           <t>3</t>
@@ -15815,22 +15795,26 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Total Household DebtQ4</t>
+          <t>Industrial Production YoYJAN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr"/>
       <c r="D556" t="inlineStr">
         <is>
-          <t>$17.9T</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
-      <c r="F556" t="inlineStr"/>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G556" t="inlineStr">
         <is>
           <t>3</t>
@@ -15840,18 +15824,26 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Manufacturing Production MoMJAN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr"/>
-      <c r="D557" t="inlineStr"/>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="E557" t="inlineStr"/>
-      <c r="F557" t="inlineStr"/>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G557" t="inlineStr">
         <is>
           <t>3</t>
@@ -15861,22 +15853,26 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Manufacturing Production YoYJAN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr"/>
       <c r="D558" t="inlineStr">
         <is>
-          <t>4.332%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E558" t="inlineStr"/>
-      <c r="F558" t="inlineStr"/>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="G558" t="inlineStr">
         <is>
           <t>3</t>
@@ -15886,83 +15882,99 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Wednesday February 12 2025</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Business Inventories MoMDEC</t>
+        </is>
+      </c>
       <c r="C559" t="inlineStr"/>
-      <c r="D559" t="inlineStr"/>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E559" t="inlineStr"/>
-      <c r="F559" t="inlineStr"/>
-      <c r="G559" t="inlineStr"/>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/07</t>
+          <t>Retail Inventories Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C560" t="inlineStr"/>
       <c r="D560" t="inlineStr">
         <is>
-          <t>5.025M</t>
-        </is>
-      </c>
-      <c r="E560" t="inlineStr"/>
-      <c r="F560" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/07</t>
+          <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
       <c r="C561" t="inlineStr"/>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>6.97%</t>
-        </is>
-      </c>
+      <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/07</t>
+          <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
-      <c r="D562" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr">
@@ -15974,1591 +15986,15 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/07</t>
-        </is>
-      </c>
+          <t>Sunday February 16 2025</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr"/>
       <c r="C563" t="inlineStr"/>
-      <c r="D563" t="inlineStr">
-        <is>
-          <t>224.8</t>
-        </is>
-      </c>
+      <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/07</t>
-        </is>
-      </c>
-      <c r="C564" t="inlineStr"/>
-      <c r="D564" t="inlineStr">
-        <is>
-          <t>584.3</t>
-        </is>
-      </c>
-      <c r="E564" t="inlineStr"/>
-      <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/07</t>
-        </is>
-      </c>
-      <c r="C565" t="inlineStr"/>
-      <c r="D565" t="inlineStr">
-        <is>
-          <t>156.7</t>
-        </is>
-      </c>
-      <c r="E565" t="inlineStr"/>
-      <c r="F565" t="inlineStr"/>
-      <c r="G565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C566" t="inlineStr"/>
-      <c r="D566" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E566" t="inlineStr"/>
-      <c r="F566" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G566" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr"/>
-      <c r="D567" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E567" t="inlineStr"/>
-      <c r="F567" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr"/>
-      <c r="D568" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E568" t="inlineStr"/>
-      <c r="F568" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G568" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr"/>
-      <c r="D569" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E569" t="inlineStr"/>
-      <c r="F569" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G569" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>CPIJAN</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr"/>
-      <c r="D570" t="inlineStr">
-        <is>
-          <t>315.61</t>
-        </is>
-      </c>
-      <c r="E570" t="inlineStr"/>
-      <c r="F570" t="inlineStr">
-        <is>
-          <t>317.3</t>
-        </is>
-      </c>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>CPI s.aJAN</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr"/>
-      <c r="D571" t="inlineStr">
-        <is>
-          <t>317.685</t>
-        </is>
-      </c>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr">
-        <is>
-          <t>318.2</t>
-        </is>
-      </c>
-      <c r="G571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Testimony</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr"/>
-      <c r="D572" t="inlineStr"/>
-      <c r="E572" t="inlineStr"/>
-      <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr"/>
-      <c r="D573" t="inlineStr">
-        <is>
-          <t>8.664M</t>
-        </is>
-      </c>
-      <c r="E573" t="inlineStr"/>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C574" t="inlineStr"/>
-      <c r="D574" t="inlineStr">
-        <is>
-          <t>2.233M</t>
-        </is>
-      </c>
-      <c r="E574" t="inlineStr"/>
-      <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C575" t="inlineStr"/>
-      <c r="D575" t="inlineStr">
-        <is>
-          <t>-0.178M</t>
-        </is>
-      </c>
-      <c r="E575" t="inlineStr"/>
-      <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C576" t="inlineStr"/>
-      <c r="D576" t="inlineStr">
-        <is>
-          <t>-0.034M</t>
-        </is>
-      </c>
-      <c r="E576" t="inlineStr"/>
-      <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr"/>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>-0.186M</t>
-        </is>
-      </c>
-      <c r="E577" t="inlineStr"/>
-      <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr"/>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>-5.471M</t>
-        </is>
-      </c>
-      <c r="E578" t="inlineStr"/>
-      <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr"/>
-      <c r="D579" t="inlineStr">
-        <is>
-          <t>-0.027M</t>
-        </is>
-      </c>
-      <c r="E579" t="inlineStr"/>
-      <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>0.373M</t>
-        </is>
-      </c>
-      <c r="E580" t="inlineStr"/>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>0.16M</t>
-        </is>
-      </c>
-      <c r="E581" t="inlineStr"/>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E582" t="inlineStr"/>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr"/>
-      <c r="D583" t="inlineStr"/>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr"/>
-      <c r="D584" t="inlineStr">
-        <is>
-          <t>4.68%</t>
-        </is>
-      </c>
-      <c r="E584" t="inlineStr"/>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>Thursday February 13 2025</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr"/>
-      <c r="C585" t="inlineStr"/>
-      <c r="D585" t="inlineStr"/>
-      <c r="E585" t="inlineStr"/>
-      <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJAN</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr">
-        <is>
-          <t>$-87B</t>
-        </is>
-      </c>
-      <c r="E586" t="inlineStr"/>
-      <c r="F586" t="inlineStr">
-        <is>
-          <t>$-93.0B</t>
-        </is>
-      </c>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr"/>
-      <c r="D587" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E587" t="inlineStr"/>
-      <c r="F587" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E588" t="inlineStr"/>
-      <c r="F588" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr">
-        <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/01</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr"/>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>1886K</t>
-        </is>
-      </c>
-      <c r="E590" t="inlineStr"/>
-      <c r="F590" t="inlineStr">
-        <is>
-          <t>1875.0K</t>
-        </is>
-      </c>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E591" t="inlineStr"/>
-      <c r="F591" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/08</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr"/>
-      <c r="D592" t="inlineStr">
-        <is>
-          <t>216.75K</t>
-        </is>
-      </c>
-      <c r="E592" t="inlineStr"/>
-      <c r="F592" t="inlineStr">
-        <is>
-          <t>216.0K</t>
-        </is>
-      </c>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>PPIJAN</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr"/>
-      <c r="D593" t="inlineStr">
-        <is>
-          <t>146.842</t>
-        </is>
-      </c>
-      <c r="E593" t="inlineStr"/>
-      <c r="F593" t="inlineStr">
-        <is>
-          <t>147.2</t>
-        </is>
-      </c>
-      <c r="G593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E594" t="inlineStr"/>
-      <c r="F594" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E595" t="inlineStr"/>
-      <c r="F595" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C596" t="inlineStr"/>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E596" t="inlineStr"/>
-      <c r="F596" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C597" t="inlineStr"/>
-      <c r="D597" t="inlineStr">
-        <is>
-          <t>-174Bcf</t>
-        </is>
-      </c>
-      <c r="E597" t="inlineStr"/>
-      <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C598" t="inlineStr"/>
-      <c r="D598" t="inlineStr"/>
-      <c r="E598" t="inlineStr"/>
-      <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C599" t="inlineStr"/>
-      <c r="D599" t="inlineStr"/>
-      <c r="E599" t="inlineStr"/>
-      <c r="F599" t="inlineStr"/>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C600" t="inlineStr"/>
-      <c r="D600" t="inlineStr"/>
-      <c r="E600" t="inlineStr"/>
-      <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr"/>
-      <c r="E601" t="inlineStr"/>
-      <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C602" t="inlineStr"/>
-      <c r="D602" t="inlineStr">
-        <is>
-          <t>4.913%</t>
-        </is>
-      </c>
-      <c r="E602" t="inlineStr"/>
-      <c r="F602" t="inlineStr"/>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr"/>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="inlineStr"/>
-      <c r="E603" t="inlineStr"/>
-      <c r="F603" t="inlineStr"/>
-      <c r="G603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/12</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr"/>
-      <c r="D604" t="inlineStr"/>
-      <c r="E604" t="inlineStr"/>
-      <c r="F604" t="inlineStr"/>
-      <c r="G604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E605" t="inlineStr"/>
-      <c r="F605" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G605" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C606" t="inlineStr"/>
-      <c r="D606" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E606" t="inlineStr"/>
-      <c r="F606" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C607" t="inlineStr"/>
-      <c r="D607" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E607" t="inlineStr"/>
-      <c r="F607" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJAN</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr"/>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E608" t="inlineStr"/>
-      <c r="F608" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E609" t="inlineStr"/>
-      <c r="F609" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr"/>
-      <c r="D610" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E610" t="inlineStr"/>
-      <c r="F610" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C611" t="inlineStr"/>
-      <c r="D611" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E611" t="inlineStr"/>
-      <c r="F611" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr"/>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr"/>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E613" t="inlineStr"/>
-      <c r="F613" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr"/>
-      <c r="D614" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E614" t="inlineStr"/>
-      <c r="F614" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJAN</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr"/>
-      <c r="D615" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E615" t="inlineStr"/>
-      <c r="F615" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr"/>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E616" t="inlineStr"/>
-      <c r="F616" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr"/>
-      <c r="D617" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E617" t="inlineStr"/>
-      <c r="F617" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr"/>
-      <c r="D618" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E618" t="inlineStr"/>
-      <c r="F618" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr"/>
-      <c r="D619" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E619" t="inlineStr"/>
-      <c r="F619" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr"/>
-      <c r="D620" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E620" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F620" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr"/>
-      <c r="D621" t="inlineStr"/>
-      <c r="E621" t="inlineStr"/>
-      <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr"/>
-      <c r="E622" t="inlineStr"/>
-      <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr"/>
-      <c r="C623" t="inlineStr"/>
-      <c r="D623" t="inlineStr"/>
-      <c r="E623" t="inlineStr"/>
-      <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G623"/>
+  <dimension ref="A1:G563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14448,10 +14448,8 @@
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -14469,10 +14467,8 @@
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G506" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="507">
@@ -14502,10 +14498,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -14539,10 +14533,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G508" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="509">
@@ -14576,10 +14568,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G509" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="510">
@@ -14613,10 +14603,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G510" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -14650,10 +14638,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -14683,10 +14669,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -14712,10 +14696,8 @@
       </c>
       <c r="E513" t="inlineStr"/>
       <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -14745,10 +14727,8 @@
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -14774,10 +14754,8 @@
       </c>
       <c r="E515" t="inlineStr"/>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -14803,10 +14781,8 @@
       </c>
       <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -14832,10 +14808,8 @@
       </c>
       <c r="E517" t="inlineStr"/>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -14861,82 +14835,100 @@
       </c>
       <c r="E518" t="inlineStr"/>
       <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeFEB/07</t>
+        </is>
+      </c>
       <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr"/>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>-0.027M</t>
+        </is>
+      </c>
       <c r="E519" t="inlineStr"/>
       <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C520" t="inlineStr"/>
-      <c r="D520" t="inlineStr"/>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>0.373M</t>
+        </is>
+      </c>
       <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
         </is>
       </c>
       <c r="C521" t="inlineStr"/>
-      <c r="D521" t="inlineStr"/>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>0.16M</t>
+        </is>
+      </c>
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C522" t="inlineStr"/>
       <c r="D522" t="inlineStr">
         <is>
-          <t>$6.82T</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -14950,127 +14942,83 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="E523" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
-      <c r="F523" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F524" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>4.68%</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 13 2025</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr"/>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E525" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F525" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="inlineStr"/>
+      <c r="G525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Monthly Budget StatementJAN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr"/>
       <c r="D526" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>$-87B</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr"/>
       <c r="F526" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>$-93.0B</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
@@ -15087,24 +15035,24 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="C527" t="inlineStr"/>
       <c r="D527" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
       <c r="F527" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15116,28 +15064,24 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Core PPI MoMJAN</t>
         </is>
       </c>
       <c r="C528" t="inlineStr"/>
       <c r="D528" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr"/>
       <c r="F528" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15149,24 +15093,24 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Initial Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C529" t="inlineStr"/>
       <c r="D529" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>219K</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>215.0K</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15178,23 +15122,19 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Continuing Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="C530" t="inlineStr"/>
       <c r="D530" t="inlineStr">
         <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>-2K</t>
-        </is>
-      </c>
+          <t>1886K</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>1875.0K</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
@@ -15211,23 +15151,19 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Core PPI YoYJAN</t>
         </is>
       </c>
       <c r="C531" t="inlineStr"/>
       <c r="D531" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>141K</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
@@ -15244,19 +15180,19 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Jobless Claims 4-week AverageFEB/08</t>
         </is>
       </c>
       <c r="C532" t="inlineStr"/>
       <c r="D532" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>216.75K</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>216.0K</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
@@ -15268,72 +15204,76 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>07:55 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>PPIJAN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr"/>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>146.842</t>
+        </is>
+      </c>
       <c r="E533" t="inlineStr"/>
-      <c r="F533" t="inlineStr"/>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>147.2</t>
+        </is>
+      </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr"/>
       <c r="D534" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr"/>
       <c r="F534" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
         </is>
       </c>
       <c r="C535" t="inlineStr"/>
       <c r="D535" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E535" t="inlineStr"/>
@@ -15351,28 +15291,24 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr"/>
       <c r="D536" t="inlineStr">
         <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
@@ -15384,30 +15320,22 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+          <t>-174Bcf</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr">
         <is>
           <t>3</t>
@@ -15417,26 +15345,18 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr"/>
-      <c r="F538" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr">
         <is>
           <t>3</t>
@@ -15446,30 +15366,18 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C539" t="inlineStr"/>
-      <c r="D539" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F539" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D539" t="inlineStr"/>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr">
         <is>
           <t>3</t>
@@ -15484,34 +15392,38 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>15-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C540" t="inlineStr"/>
-      <c r="D540" t="inlineStr"/>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>6.05%</t>
+        </is>
+      </c>
       <c r="E540" t="inlineStr"/>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>30-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C541" t="inlineStr"/>
       <c r="D541" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>6.89%</t>
         </is>
       </c>
       <c r="E541" t="inlineStr"/>
@@ -15530,13 +15442,13 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C542" t="inlineStr"/>
       <c r="D542" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>4.913%</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -15548,39 +15460,31 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" t="inlineStr"/>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Friday February 14 2025</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr"/>
       <c r="C543" t="inlineStr"/>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G543" t="inlineStr"/>
     </row>
     <row r="544">
-      <c r="A544" t="inlineStr"/>
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Fed Balance SheetFEB/12</t>
         </is>
       </c>
       <c r="C544" t="inlineStr"/>
-      <c r="D544" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr">
@@ -15592,123 +15496,171 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMJAN</t>
+        </is>
+      </c>
       <c r="C545" t="inlineStr"/>
-      <c r="D545" t="inlineStr"/>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E545" t="inlineStr"/>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>Export Prices MoMJAN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>$12.35B</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr">
         <is>
-          <t>$ 18B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Import Prices MoMJAN</t>
+        </is>
+      </c>
       <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr"/>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E547" t="inlineStr"/>
-      <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr"/>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Retail Sales Control Group MoMJAN</t>
+        </is>
+      </c>
       <c r="C548" t="inlineStr"/>
-      <c r="D548" t="inlineStr"/>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="E548" t="inlineStr"/>
-      <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr"/>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
       <c r="C549" t="inlineStr"/>
       <c r="D549" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Export Prices YoYJAN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr"/>
       <c r="D550" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="E550" t="inlineStr"/>
-      <c r="F550" t="inlineStr"/>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="G550" t="inlineStr">
         <is>
           <t>3</t>
@@ -15718,22 +15670,26 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Import Prices YoYJAN</t>
         </is>
       </c>
       <c r="C551" t="inlineStr"/>
       <c r="D551" t="inlineStr">
         <is>
-          <t>4.155%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
-      <c r="F551" t="inlineStr"/>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G551" t="inlineStr">
         <is>
           <t>3</t>
@@ -15743,37 +15699,53 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+        </is>
+      </c>
       <c r="C552" t="inlineStr"/>
-      <c r="D552" t="inlineStr"/>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E552" t="inlineStr"/>
-      <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr"/>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJAN</t>
+          <t>Retail Sales YoYJAN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr"/>
       <c r="D553" t="inlineStr">
         <is>
-          <t>105.1</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
@@ -15785,18 +15757,26 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>07:20 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Industrial Production MoMJAN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="E554" t="inlineStr"/>
-      <c r="F554" t="inlineStr"/>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G554" t="inlineStr">
         <is>
           <t>2</t>
@@ -15806,22 +15786,26 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/08</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>77.6%</t>
         </is>
       </c>
       <c r="E555" t="inlineStr"/>
-      <c r="F555" t="inlineStr"/>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>77.4%</t>
+        </is>
+      </c>
       <c r="G555" t="inlineStr">
         <is>
           <t>3</t>
@@ -15831,22 +15815,26 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Total Household DebtQ4</t>
+          <t>Industrial Production YoYJAN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr"/>
       <c r="D556" t="inlineStr">
         <is>
-          <t>$17.9T</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
-      <c r="F556" t="inlineStr"/>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G556" t="inlineStr">
         <is>
           <t>3</t>
@@ -15856,18 +15844,26 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Manufacturing Production MoMJAN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr"/>
-      <c r="D557" t="inlineStr"/>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="E557" t="inlineStr"/>
-      <c r="F557" t="inlineStr"/>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G557" t="inlineStr">
         <is>
           <t>3</t>
@@ -15877,22 +15873,26 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Manufacturing Production YoYJAN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr"/>
       <c r="D558" t="inlineStr">
         <is>
-          <t>4.332%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E558" t="inlineStr"/>
-      <c r="F558" t="inlineStr"/>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="G558" t="inlineStr">
         <is>
           <t>3</t>
@@ -15902,83 +15902,99 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Wednesday February 12 2025</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Business Inventories MoMDEC</t>
+        </is>
+      </c>
       <c r="C559" t="inlineStr"/>
-      <c r="D559" t="inlineStr"/>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E559" t="inlineStr"/>
-      <c r="F559" t="inlineStr"/>
-      <c r="G559" t="inlineStr"/>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/07</t>
+          <t>Retail Inventories Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C560" t="inlineStr"/>
       <c r="D560" t="inlineStr">
         <is>
-          <t>5.025M</t>
-        </is>
-      </c>
-      <c r="E560" t="inlineStr"/>
-      <c r="F560" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/07</t>
+          <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
       <c r="C561" t="inlineStr"/>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>6.97%</t>
-        </is>
-      </c>
+      <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/07</t>
+          <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
-      <c r="D562" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr">
@@ -15990,1599 +16006,15 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/07</t>
-        </is>
-      </c>
+          <t>Sunday February 16 2025</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr"/>
       <c r="C563" t="inlineStr"/>
-      <c r="D563" t="inlineStr">
-        <is>
-          <t>224.8</t>
-        </is>
-      </c>
+      <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/07</t>
-        </is>
-      </c>
-      <c r="C564" t="inlineStr"/>
-      <c r="D564" t="inlineStr">
-        <is>
-          <t>584.3</t>
-        </is>
-      </c>
-      <c r="E564" t="inlineStr"/>
-      <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/07</t>
-        </is>
-      </c>
-      <c r="C565" t="inlineStr"/>
-      <c r="D565" t="inlineStr">
-        <is>
-          <t>156.7</t>
-        </is>
-      </c>
-      <c r="E565" t="inlineStr"/>
-      <c r="F565" t="inlineStr"/>
-      <c r="G565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C566" t="inlineStr"/>
-      <c r="D566" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E566" t="inlineStr"/>
-      <c r="F566" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G566" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr"/>
-      <c r="D567" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E567" t="inlineStr"/>
-      <c r="F567" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr"/>
-      <c r="D568" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E568" t="inlineStr"/>
-      <c r="F568" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G568" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr"/>
-      <c r="D569" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E569" t="inlineStr"/>
-      <c r="F569" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G569" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>CPIJAN</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr"/>
-      <c r="D570" t="inlineStr">
-        <is>
-          <t>315.61</t>
-        </is>
-      </c>
-      <c r="E570" t="inlineStr"/>
-      <c r="F570" t="inlineStr">
-        <is>
-          <t>317.3</t>
-        </is>
-      </c>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>CPI s.aJAN</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr"/>
-      <c r="D571" t="inlineStr">
-        <is>
-          <t>317.685</t>
-        </is>
-      </c>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr">
-        <is>
-          <t>318.2</t>
-        </is>
-      </c>
-      <c r="G571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Testimony</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr"/>
-      <c r="D572" t="inlineStr"/>
-      <c r="E572" t="inlineStr"/>
-      <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr"/>
-      <c r="D573" t="inlineStr">
-        <is>
-          <t>8.664M</t>
-        </is>
-      </c>
-      <c r="E573" t="inlineStr"/>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C574" t="inlineStr"/>
-      <c r="D574" t="inlineStr">
-        <is>
-          <t>2.233M</t>
-        </is>
-      </c>
-      <c r="E574" t="inlineStr"/>
-      <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C575" t="inlineStr"/>
-      <c r="D575" t="inlineStr">
-        <is>
-          <t>-0.178M</t>
-        </is>
-      </c>
-      <c r="E575" t="inlineStr"/>
-      <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C576" t="inlineStr"/>
-      <c r="D576" t="inlineStr">
-        <is>
-          <t>-0.034M</t>
-        </is>
-      </c>
-      <c r="E576" t="inlineStr"/>
-      <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr"/>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>-0.186M</t>
-        </is>
-      </c>
-      <c r="E577" t="inlineStr"/>
-      <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr"/>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>-5.471M</t>
-        </is>
-      </c>
-      <c r="E578" t="inlineStr"/>
-      <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr"/>
-      <c r="D579" t="inlineStr">
-        <is>
-          <t>-0.027M</t>
-        </is>
-      </c>
-      <c r="E579" t="inlineStr"/>
-      <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>0.373M</t>
-        </is>
-      </c>
-      <c r="E580" t="inlineStr"/>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>0.16M</t>
-        </is>
-      </c>
-      <c r="E581" t="inlineStr"/>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E582" t="inlineStr"/>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr"/>
-      <c r="D583" t="inlineStr"/>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr"/>
-      <c r="D584" t="inlineStr">
-        <is>
-          <t>4.68%</t>
-        </is>
-      </c>
-      <c r="E584" t="inlineStr"/>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>Thursday February 13 2025</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr"/>
-      <c r="C585" t="inlineStr"/>
-      <c r="D585" t="inlineStr"/>
-      <c r="E585" t="inlineStr"/>
-      <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJAN</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr">
-        <is>
-          <t>$-87B</t>
-        </is>
-      </c>
-      <c r="E586" t="inlineStr"/>
-      <c r="F586" t="inlineStr">
-        <is>
-          <t>$-93.0B</t>
-        </is>
-      </c>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr"/>
-      <c r="D587" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E587" t="inlineStr"/>
-      <c r="F587" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E588" t="inlineStr"/>
-      <c r="F588" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr">
-        <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/01</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr"/>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>1886K</t>
-        </is>
-      </c>
-      <c r="E590" t="inlineStr"/>
-      <c r="F590" t="inlineStr">
-        <is>
-          <t>1875.0K</t>
-        </is>
-      </c>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E591" t="inlineStr"/>
-      <c r="F591" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/08</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr"/>
-      <c r="D592" t="inlineStr">
-        <is>
-          <t>216.75K</t>
-        </is>
-      </c>
-      <c r="E592" t="inlineStr"/>
-      <c r="F592" t="inlineStr">
-        <is>
-          <t>216.0K</t>
-        </is>
-      </c>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>PPIJAN</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr"/>
-      <c r="D593" t="inlineStr">
-        <is>
-          <t>146.842</t>
-        </is>
-      </c>
-      <c r="E593" t="inlineStr"/>
-      <c r="F593" t="inlineStr">
-        <is>
-          <t>147.2</t>
-        </is>
-      </c>
-      <c r="G593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E594" t="inlineStr"/>
-      <c r="F594" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E595" t="inlineStr"/>
-      <c r="F595" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C596" t="inlineStr"/>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E596" t="inlineStr"/>
-      <c r="F596" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C597" t="inlineStr"/>
-      <c r="D597" t="inlineStr">
-        <is>
-          <t>-174Bcf</t>
-        </is>
-      </c>
-      <c r="E597" t="inlineStr"/>
-      <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C598" t="inlineStr"/>
-      <c r="D598" t="inlineStr"/>
-      <c r="E598" t="inlineStr"/>
-      <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C599" t="inlineStr"/>
-      <c r="D599" t="inlineStr"/>
-      <c r="E599" t="inlineStr"/>
-      <c r="F599" t="inlineStr"/>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C600" t="inlineStr"/>
-      <c r="D600" t="inlineStr">
-        <is>
-          <t>6.05%</t>
-        </is>
-      </c>
-      <c r="E600" t="inlineStr"/>
-      <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr">
-        <is>
-          <t>6.89%</t>
-        </is>
-      </c>
-      <c r="E601" t="inlineStr"/>
-      <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C602" t="inlineStr"/>
-      <c r="D602" t="inlineStr">
-        <is>
-          <t>4.913%</t>
-        </is>
-      </c>
-      <c r="E602" t="inlineStr"/>
-      <c r="F602" t="inlineStr"/>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr"/>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="inlineStr"/>
-      <c r="E603" t="inlineStr"/>
-      <c r="F603" t="inlineStr"/>
-      <c r="G603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/12</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr"/>
-      <c r="D604" t="inlineStr"/>
-      <c r="E604" t="inlineStr"/>
-      <c r="F604" t="inlineStr"/>
-      <c r="G604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E605" t="inlineStr"/>
-      <c r="F605" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G605" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C606" t="inlineStr"/>
-      <c r="D606" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E606" t="inlineStr"/>
-      <c r="F606" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C607" t="inlineStr"/>
-      <c r="D607" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E607" t="inlineStr"/>
-      <c r="F607" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJAN</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr"/>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E608" t="inlineStr"/>
-      <c r="F608" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E609" t="inlineStr"/>
-      <c r="F609" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr"/>
-      <c r="D610" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E610" t="inlineStr"/>
-      <c r="F610" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C611" t="inlineStr"/>
-      <c r="D611" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E611" t="inlineStr"/>
-      <c r="F611" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr"/>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr"/>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E613" t="inlineStr"/>
-      <c r="F613" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr"/>
-      <c r="D614" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E614" t="inlineStr"/>
-      <c r="F614" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJAN</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr"/>
-      <c r="D615" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E615" t="inlineStr"/>
-      <c r="F615" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr"/>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E616" t="inlineStr"/>
-      <c r="F616" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr"/>
-      <c r="D617" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E617" t="inlineStr"/>
-      <c r="F617" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr"/>
-      <c r="D618" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E618" t="inlineStr"/>
-      <c r="F618" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr"/>
-      <c r="D619" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E619" t="inlineStr"/>
-      <c r="F619" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr"/>
-      <c r="D620" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E620" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F620" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr"/>
-      <c r="D621" t="inlineStr"/>
-      <c r="E621" t="inlineStr"/>
-      <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr"/>
-      <c r="E622" t="inlineStr"/>
-      <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr"/>
-      <c r="C623" t="inlineStr"/>
-      <c r="D623" t="inlineStr"/>
-      <c r="E623" t="inlineStr"/>
-      <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G623"/>
+  <dimension ref="A1:G563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14448,10 +14448,8 @@
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr"/>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G505" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="506">
@@ -14469,10 +14467,8 @@
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr"/>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G506" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="507">
@@ -14502,10 +14498,8 @@
           <t>45K</t>
         </is>
       </c>
-      <c r="G507" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G507" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -14539,10 +14533,8 @@
           <t>215.0K</t>
         </is>
       </c>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G508" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="509">
@@ -14576,10 +14568,8 @@
           <t>1.9%</t>
         </is>
       </c>
-      <c r="G509" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G509" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="510">
@@ -14613,10 +14603,8 @@
           <t>3%</t>
         </is>
       </c>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G510" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="511">
@@ -14650,10 +14638,8 @@
           <t>1855.0K</t>
         </is>
       </c>
-      <c r="G511" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G511" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -14683,10 +14669,8 @@
           <t>215.5K</t>
         </is>
       </c>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G512" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -14712,10 +14696,8 @@
       </c>
       <c r="E513" t="inlineStr"/>
       <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G513" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -14745,10 +14727,8 @@
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G514" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -14774,10 +14754,8 @@
       </c>
       <c r="E515" t="inlineStr"/>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G515" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -14803,10 +14781,8 @@
       </c>
       <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G516" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -14832,10 +14808,8 @@
       </c>
       <c r="E517" t="inlineStr"/>
       <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G517" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -14861,86 +14835,100 @@
       </c>
       <c r="E518" t="inlineStr"/>
       <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G518" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Friday February 07 2025</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Production ChangeFEB/07</t>
+        </is>
+      </c>
       <c r="C519" t="inlineStr"/>
-      <c r="D519" t="inlineStr"/>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>-0.027M</t>
+        </is>
+      </c>
       <c r="E519" t="inlineStr"/>
       <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Fed Waller Speech</t>
+          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C520" t="inlineStr"/>
-      <c r="D520" t="inlineStr"/>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>0.373M</t>
+        </is>
+      </c>
       <c r="E520" t="inlineStr"/>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
         </is>
       </c>
       <c r="C521" t="inlineStr"/>
-      <c r="D521" t="inlineStr"/>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>0.16M</t>
+        </is>
+      </c>
       <c r="E521" t="inlineStr"/>
       <c r="F521" t="inlineStr"/>
       <c r="G521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Fed Balance SheetFEB/05</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>$6.81T</t>
-        </is>
-      </c>
+          <t>17-Week Bill Auction</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr"/>
       <c r="D522" t="inlineStr">
         <is>
-          <t>$6.82T</t>
+          <t>4.205%</t>
         </is>
       </c>
       <c r="E522" t="inlineStr"/>
@@ -14954,127 +14942,83 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsJAN</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C523" t="inlineStr"/>
-      <c r="D523" t="inlineStr">
-        <is>
-          <t>256K</t>
-        </is>
-      </c>
-      <c r="E523" t="inlineStr">
-        <is>
-          <t>170K</t>
-        </is>
-      </c>
-      <c r="F523" t="inlineStr">
-        <is>
-          <t>205K</t>
-        </is>
-      </c>
+      <c r="D523" t="inlineStr"/>
+      <c r="E523" t="inlineStr"/>
+      <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Unemployment RateJAN</t>
+          <t>10-Year Note Auction</t>
         </is>
       </c>
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="E524" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F524" t="inlineStr">
-        <is>
-          <t>4.1%</t>
-        </is>
-      </c>
+          <t>4.68%</t>
+        </is>
+      </c>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr"/>
       <c r="G524" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>Average Hourly Earnings MoMJAN</t>
-        </is>
-      </c>
+          <t>Thursday February 13 2025</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr"/>
-      <c r="D525" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E525" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F525" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="inlineStr"/>
+      <c r="G525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>12:30 AM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoYJAN</t>
+          <t>Monthly Budget StatementJAN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr"/>
       <c r="D526" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
+          <t>$-87B</t>
+        </is>
+      </c>
+      <c r="E526" t="inlineStr"/>
       <c r="F526" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>$-93.0B</t>
         </is>
       </c>
       <c r="G526" t="inlineStr">
@@ -15091,24 +15035,24 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Participation RateJAN</t>
+          <t>PPI MoMJAN</t>
         </is>
       </c>
       <c r="C527" t="inlineStr"/>
       <c r="D527" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E527" t="inlineStr"/>
       <c r="F527" t="inlineStr">
         <is>
-          <t>62.5%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G527" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -15120,28 +15064,24 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Average Weekly HoursJAN</t>
+          <t>Core PPI MoMJAN</t>
         </is>
       </c>
       <c r="C528" t="inlineStr"/>
       <c r="D528" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E528" t="inlineStr"/>
       <c r="F528" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G528" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15153,24 +15093,24 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Government PayrollsJAN</t>
+          <t>Initial Jobless ClaimsFEB/08</t>
         </is>
       </c>
       <c r="C529" t="inlineStr"/>
       <c r="D529" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>219K</t>
         </is>
       </c>
       <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr">
         <is>
-          <t>25K</t>
+          <t>215.0K</t>
         </is>
       </c>
       <c r="G529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -15182,23 +15122,19 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsJAN</t>
+          <t>Continuing Jobless ClaimsFEB/01</t>
         </is>
       </c>
       <c r="C530" t="inlineStr"/>
       <c r="D530" t="inlineStr">
         <is>
-          <t>-13K</t>
-        </is>
-      </c>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>-2K</t>
-        </is>
-      </c>
+          <t>1886K</t>
+        </is>
+      </c>
+      <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr">
         <is>
-          <t>-5K</t>
+          <t>1875.0K</t>
         </is>
       </c>
       <c r="G530" t="inlineStr">
@@ -15215,23 +15151,19 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateJAN</t>
+          <t>Core PPI YoYJAN</t>
         </is>
       </c>
       <c r="C531" t="inlineStr"/>
       <c r="D531" t="inlineStr">
         <is>
-          <t>223K</t>
-        </is>
-      </c>
-      <c r="E531" t="inlineStr">
-        <is>
-          <t>141K</t>
-        </is>
-      </c>
+          <t>3.5%</t>
+        </is>
+      </c>
+      <c r="E531" t="inlineStr"/>
       <c r="F531" t="inlineStr">
         <is>
-          <t>180K</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="G531" t="inlineStr">
@@ -15248,19 +15180,19 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>U-6 Unemployment RateJAN</t>
+          <t>Jobless Claims 4-week AverageFEB/08</t>
         </is>
       </c>
       <c r="C532" t="inlineStr"/>
       <c r="D532" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>216.75K</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
       <c r="F532" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>216.0K</t>
         </is>
       </c>
       <c r="G532" t="inlineStr">
@@ -15272,72 +15204,76 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>07:55 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Fed Bowman Speech</t>
+          <t>PPIJAN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr"/>
-      <c r="D533" t="inlineStr"/>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>146.842</t>
+        </is>
+      </c>
       <c r="E533" t="inlineStr"/>
-      <c r="F533" t="inlineStr"/>
+      <c r="F533" t="inlineStr">
+        <is>
+          <t>147.2</t>
+        </is>
+      </c>
       <c r="G533" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
         </is>
       </c>
       <c r="C534" t="inlineStr"/>
       <c r="D534" t="inlineStr">
         <is>
-          <t>71.1</t>
-        </is>
-      </c>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>71.1</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E534" t="inlineStr"/>
       <c r="F534" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelFEB</t>
+          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
         </is>
       </c>
       <c r="C535" t="inlineStr"/>
       <c r="D535" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="E535" t="inlineStr"/>
@@ -15355,28 +15291,24 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelFEB</t>
+          <t>PPI YoYJAN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr"/>
       <c r="D536" t="inlineStr">
         <is>
-          <t>69.3</t>
-        </is>
-      </c>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr">
         <is>
-          <t>69.5</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="G536" t="inlineStr">
@@ -15388,30 +15320,22 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelFEB</t>
+          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
         </is>
       </c>
       <c r="C537" t="inlineStr"/>
       <c r="D537" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="E537" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="F537" t="inlineStr">
-        <is>
-          <t>74.3</t>
-        </is>
-      </c>
+          <t>-174Bcf</t>
+        </is>
+      </c>
+      <c r="E537" t="inlineStr"/>
+      <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr">
         <is>
           <t>3</t>
@@ -15421,26 +15345,18 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C538" t="inlineStr"/>
-      <c r="D538" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr"/>
-      <c r="F538" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr">
         <is>
           <t>3</t>
@@ -15450,30 +15366,18 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoMDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C539" t="inlineStr"/>
-      <c r="D539" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F539" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D539" t="inlineStr"/>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr">
         <is>
           <t>3</t>
@@ -15488,34 +15392,38 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>15-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C540" t="inlineStr"/>
-      <c r="D540" t="inlineStr"/>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>6.05%</t>
+        </is>
+      </c>
       <c r="E540" t="inlineStr"/>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountFEB/07</t>
+          <t>30-Year Mortgage RateFEB/13</t>
         </is>
       </c>
       <c r="C541" t="inlineStr"/>
       <c r="D541" t="inlineStr">
         <is>
-          <t>479</t>
+          <t>6.89%</t>
         </is>
       </c>
       <c r="E541" t="inlineStr"/>
@@ -15534,13 +15442,13 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountFEB/07</t>
+          <t>30-Year Bond Auction</t>
         </is>
       </c>
       <c r="C542" t="inlineStr"/>
       <c r="D542" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>4.913%</t>
         </is>
       </c>
       <c r="E542" t="inlineStr"/>
@@ -15552,37 +15460,33 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" t="inlineStr"/>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>Used Car Prices MoMJAN</t>
-        </is>
-      </c>
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Friday February 14 2025</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr"/>
       <c r="C543" t="inlineStr"/>
-      <c r="D543" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G543" t="inlineStr"/>
     </row>
     <row r="544">
-      <c r="A544" t="inlineStr"/>
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Used Car Prices YoYJAN</t>
+          <t>Fed Balance SheetFEB/12</t>
         </is>
       </c>
       <c r="C544" t="inlineStr"/>
       <c r="D544" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$6.81T</t>
         </is>
       </c>
       <c r="E544" t="inlineStr"/>
@@ -15596,123 +15500,171 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Saturday February 08 2025</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Retail Sales MoMJAN</t>
+        </is>
+      </c>
       <c r="C545" t="inlineStr"/>
-      <c r="D545" t="inlineStr"/>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="E545" t="inlineStr"/>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Consumer Credit ChangeDEC</t>
+          <t>Export Prices MoMJAN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr"/>
       <c r="D546" t="inlineStr">
         <is>
-          <t>$-7.49B</t>
-        </is>
-      </c>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>$12.35B</t>
-        </is>
-      </c>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr">
         <is>
-          <t>$ 18B</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G546" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Sunday February 09 2025</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Import Prices MoMJAN</t>
+        </is>
+      </c>
       <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr"/>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E547" t="inlineStr"/>
-      <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr"/>
+      <c r="F547" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Monday February 10 2025</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Retail Sales Control Group MoMJAN</t>
+        </is>
+      </c>
       <c r="C548" t="inlineStr"/>
-      <c r="D548" t="inlineStr"/>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="E548" t="inlineStr"/>
-      <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr"/>
+      <c r="F548" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="G548" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsJAN</t>
+          <t>Retail Sales Ex Autos MoMJAN</t>
         </is>
       </c>
       <c r="C549" t="inlineStr"/>
       <c r="D549" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E549" t="inlineStr"/>
       <c r="F549" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G549" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Export Prices YoYJAN</t>
         </is>
       </c>
       <c r="C550" t="inlineStr"/>
       <c r="D550" t="inlineStr">
         <is>
-          <t>4.22%</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="E550" t="inlineStr"/>
-      <c r="F550" t="inlineStr"/>
+      <c r="F550" t="inlineStr">
+        <is>
+          <t>2.3%</t>
+        </is>
+      </c>
       <c r="G550" t="inlineStr">
         <is>
           <t>3</t>
@@ -15722,22 +15674,26 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Import Prices YoYJAN</t>
         </is>
       </c>
       <c r="C551" t="inlineStr"/>
       <c r="D551" t="inlineStr">
         <is>
-          <t>4.155%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="E551" t="inlineStr"/>
-      <c r="F551" t="inlineStr"/>
+      <c r="F551" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="G551" t="inlineStr">
         <is>
           <t>3</t>
@@ -15747,37 +15703,53 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Tuesday February 11 2025</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr"/>
+          <t>07:00 PM</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
+        </is>
+      </c>
       <c r="C552" t="inlineStr"/>
-      <c r="D552" t="inlineStr"/>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="E552" t="inlineStr"/>
-      <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr"/>
+      <c r="F552" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexJAN</t>
+          <t>Retail Sales YoYJAN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr"/>
       <c r="D553" t="inlineStr">
         <is>
-          <t>105.1</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E553" t="inlineStr"/>
       <c r="F553" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="G553" t="inlineStr">
@@ -15789,18 +15761,26 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>07:20 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Fed Hammack Speech</t>
+          <t>Industrial Production MoMJAN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="E554" t="inlineStr"/>
-      <c r="F554" t="inlineStr"/>
+      <c r="F554" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="G554" t="inlineStr">
         <is>
           <t>2</t>
@@ -15810,22 +15790,26 @@
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>07:25 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>Redbook YoYFEB/08</t>
+          <t>Capacity UtilizationJAN</t>
         </is>
       </c>
       <c r="C555" t="inlineStr"/>
       <c r="D555" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>77.6%</t>
         </is>
       </c>
       <c r="E555" t="inlineStr"/>
-      <c r="F555" t="inlineStr"/>
+      <c r="F555" t="inlineStr">
+        <is>
+          <t>77.4%</t>
+        </is>
+      </c>
       <c r="G555" t="inlineStr">
         <is>
           <t>3</t>
@@ -15835,22 +15819,26 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>Total Household DebtQ4</t>
+          <t>Industrial Production YoYJAN</t>
         </is>
       </c>
       <c r="C556" t="inlineStr"/>
       <c r="D556" t="inlineStr">
         <is>
-          <t>$17.9T</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="E556" t="inlineStr"/>
-      <c r="F556" t="inlineStr"/>
+      <c r="F556" t="inlineStr">
+        <is>
+          <t>0.9%</t>
+        </is>
+      </c>
       <c r="G556" t="inlineStr">
         <is>
           <t>3</t>
@@ -15860,18 +15848,26 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Manufacturing Production MoMJAN</t>
         </is>
       </c>
       <c r="C557" t="inlineStr"/>
-      <c r="D557" t="inlineStr"/>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
       <c r="E557" t="inlineStr"/>
-      <c r="F557" t="inlineStr"/>
+      <c r="F557" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G557" t="inlineStr">
         <is>
           <t>3</t>
@@ -15881,22 +15877,26 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>11:30 PM</t>
+          <t>07:45 PM</t>
         </is>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>3-Year Note Auction</t>
+          <t>Manufacturing Production YoYJAN</t>
         </is>
       </c>
       <c r="C558" t="inlineStr"/>
       <c r="D558" t="inlineStr">
         <is>
-          <t>4.332%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E558" t="inlineStr"/>
-      <c r="F558" t="inlineStr"/>
+      <c r="F558" t="inlineStr">
+        <is>
+          <t>0.8%</t>
+        </is>
+      </c>
       <c r="G558" t="inlineStr">
         <is>
           <t>3</t>
@@ -15906,83 +15906,99 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Wednesday February 12 2025</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr"/>
+          <t>08:30 PM</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Business Inventories MoMDEC</t>
+        </is>
+      </c>
       <c r="C559" t="inlineStr"/>
-      <c r="D559" t="inlineStr"/>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="E559" t="inlineStr"/>
-      <c r="F559" t="inlineStr"/>
-      <c r="G559" t="inlineStr"/>
+      <c r="F559" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
+      <c r="G559" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeFEB/07</t>
+          <t>Retail Inventories Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C560" t="inlineStr"/>
       <c r="D560" t="inlineStr">
         <is>
-          <t>5.025M</t>
-        </is>
-      </c>
-      <c r="E560" t="inlineStr"/>
-      <c r="F560" t="inlineStr"/>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G560" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateFEB/07</t>
+          <t>Baker Hughes Oil Rig CountFEB/14</t>
         </is>
       </c>
       <c r="C561" t="inlineStr"/>
-      <c r="D561" t="inlineStr">
-        <is>
-          <t>6.97%</t>
-        </is>
-      </c>
+      <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr"/>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsFEB/07</t>
+          <t>Baker Hughes Total Rigs CountFEB/14</t>
         </is>
       </c>
       <c r="C562" t="inlineStr"/>
-      <c r="D562" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr"/>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr">
@@ -15994,1603 +16010,15 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexFEB/07</t>
-        </is>
-      </c>
+          <t>Sunday February 16 2025</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr"/>
       <c r="C563" t="inlineStr"/>
-      <c r="D563" t="inlineStr">
-        <is>
-          <t>224.8</t>
-        </is>
-      </c>
+      <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr"/>
       <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexFEB/07</t>
-        </is>
-      </c>
-      <c r="C564" t="inlineStr"/>
-      <c r="D564" t="inlineStr">
-        <is>
-          <t>584.3</t>
-        </is>
-      </c>
-      <c r="E564" t="inlineStr"/>
-      <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>05:30 PM</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexFEB/07</t>
-        </is>
-      </c>
-      <c r="C565" t="inlineStr"/>
-      <c r="D565" t="inlineStr">
-        <is>
-          <t>156.7</t>
-        </is>
-      </c>
-      <c r="E565" t="inlineStr"/>
-      <c r="F565" t="inlineStr"/>
-      <c r="G565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C566" t="inlineStr"/>
-      <c r="D566" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E566" t="inlineStr"/>
-      <c r="F566" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G566" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr"/>
-      <c r="D567" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
-      <c r="E567" t="inlineStr"/>
-      <c r="F567" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMJAN</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr"/>
-      <c r="D568" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E568" t="inlineStr"/>
-      <c r="F568" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G568" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYJAN</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr"/>
-      <c r="D569" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="E569" t="inlineStr"/>
-      <c r="F569" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G569" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>CPIJAN</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr"/>
-      <c r="D570" t="inlineStr">
-        <is>
-          <t>315.61</t>
-        </is>
-      </c>
-      <c r="E570" t="inlineStr"/>
-      <c r="F570" t="inlineStr">
-        <is>
-          <t>317.3</t>
-        </is>
-      </c>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>CPI s.aJAN</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr"/>
-      <c r="D571" t="inlineStr">
-        <is>
-          <t>317.685</t>
-        </is>
-      </c>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr">
-        <is>
-          <t>318.2</t>
-        </is>
-      </c>
-      <c r="G571" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Testimony</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr"/>
-      <c r="D572" t="inlineStr"/>
-      <c r="E572" t="inlineStr"/>
-      <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr"/>
-      <c r="D573" t="inlineStr">
-        <is>
-          <t>8.664M</t>
-        </is>
-      </c>
-      <c r="E573" t="inlineStr"/>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C574" t="inlineStr"/>
-      <c r="D574" t="inlineStr">
-        <is>
-          <t>2.233M</t>
-        </is>
-      </c>
-      <c r="E574" t="inlineStr"/>
-      <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C575" t="inlineStr"/>
-      <c r="D575" t="inlineStr">
-        <is>
-          <t>-0.178M</t>
-        </is>
-      </c>
-      <c r="E575" t="inlineStr"/>
-      <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C576" t="inlineStr"/>
-      <c r="D576" t="inlineStr">
-        <is>
-          <t>-0.034M</t>
-        </is>
-      </c>
-      <c r="E576" t="inlineStr"/>
-      <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr"/>
-      <c r="D577" t="inlineStr">
-        <is>
-          <t>-0.186M</t>
-        </is>
-      </c>
-      <c r="E577" t="inlineStr"/>
-      <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr"/>
-      <c r="D578" t="inlineStr">
-        <is>
-          <t>-5.471M</t>
-        </is>
-      </c>
-      <c r="E578" t="inlineStr"/>
-      <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr"/>
-      <c r="D579" t="inlineStr">
-        <is>
-          <t>-0.027M</t>
-        </is>
-      </c>
-      <c r="E579" t="inlineStr"/>
-      <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr">
-        <is>
-          <t>0.373M</t>
-        </is>
-      </c>
-      <c r="E580" t="inlineStr"/>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr">
-        <is>
-          <t>0.16M</t>
-        </is>
-      </c>
-      <c r="E581" t="inlineStr"/>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr">
-        <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E582" t="inlineStr"/>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>Fed Bostic Speech</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr"/>
-      <c r="D583" t="inlineStr"/>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>10-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr"/>
-      <c r="D584" t="inlineStr">
-        <is>
-          <t>4.68%</t>
-        </is>
-      </c>
-      <c r="E584" t="inlineStr"/>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>Thursday February 13 2025</t>
-        </is>
-      </c>
-      <c r="B585" t="inlineStr"/>
-      <c r="C585" t="inlineStr"/>
-      <c r="D585" t="inlineStr"/>
-      <c r="E585" t="inlineStr"/>
-      <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>12:30 AM</t>
-        </is>
-      </c>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>Monthly Budget StatementJAN</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr">
-        <is>
-          <t>$-87B</t>
-        </is>
-      </c>
-      <c r="E586" t="inlineStr"/>
-      <c r="F586" t="inlineStr">
-        <is>
-          <t>$-93.0B</t>
-        </is>
-      </c>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B587" t="inlineStr">
-        <is>
-          <t>PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C587" t="inlineStr"/>
-      <c r="D587" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E587" t="inlineStr"/>
-      <c r="F587" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G587" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B588" t="inlineStr">
-        <is>
-          <t>Core PPI MoMJAN</t>
-        </is>
-      </c>
-      <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E588" t="inlineStr"/>
-      <c r="F588" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G588" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B589" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsFEB/08</t>
-        </is>
-      </c>
-      <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr">
-        <is>
-          <t>219K</t>
-        </is>
-      </c>
-      <c r="E589" t="inlineStr"/>
-      <c r="F589" t="inlineStr">
-        <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="G589" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B590" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsFEB/01</t>
-        </is>
-      </c>
-      <c r="C590" t="inlineStr"/>
-      <c r="D590" t="inlineStr">
-        <is>
-          <t>1886K</t>
-        </is>
-      </c>
-      <c r="E590" t="inlineStr"/>
-      <c r="F590" t="inlineStr">
-        <is>
-          <t>1875.0K</t>
-        </is>
-      </c>
-      <c r="G590" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B591" t="inlineStr">
-        <is>
-          <t>Core PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E591" t="inlineStr"/>
-      <c r="F591" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G591" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B592" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageFEB/08</t>
-        </is>
-      </c>
-      <c r="C592" t="inlineStr"/>
-      <c r="D592" t="inlineStr">
-        <is>
-          <t>216.75K</t>
-        </is>
-      </c>
-      <c r="E592" t="inlineStr"/>
-      <c r="F592" t="inlineStr">
-        <is>
-          <t>216.0K</t>
-        </is>
-      </c>
-      <c r="G592" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B593" t="inlineStr">
-        <is>
-          <t>PPIJAN</t>
-        </is>
-      </c>
-      <c r="C593" t="inlineStr"/>
-      <c r="D593" t="inlineStr">
-        <is>
-          <t>146.842</t>
-        </is>
-      </c>
-      <c r="E593" t="inlineStr"/>
-      <c r="F593" t="inlineStr">
-        <is>
-          <t>147.2</t>
-        </is>
-      </c>
-      <c r="G593" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B594" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade MoMJAN</t>
-        </is>
-      </c>
-      <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E594" t="inlineStr"/>
-      <c r="F594" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G594" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B595" t="inlineStr">
-        <is>
-          <t>PPI Ex Food, Energy and Trade YoYJAN</t>
-        </is>
-      </c>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E595" t="inlineStr"/>
-      <c r="F595" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G595" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B596" t="inlineStr">
-        <is>
-          <t>PPI YoYJAN</t>
-        </is>
-      </c>
-      <c r="C596" t="inlineStr"/>
-      <c r="D596" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E596" t="inlineStr"/>
-      <c r="F596" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G596" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B597" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeFEB/07</t>
-        </is>
-      </c>
-      <c r="C597" t="inlineStr"/>
-      <c r="D597" t="inlineStr">
-        <is>
-          <t>-174Bcf</t>
-        </is>
-      </c>
-      <c r="E597" t="inlineStr"/>
-      <c r="F597" t="inlineStr"/>
-      <c r="G597" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B598" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C598" t="inlineStr"/>
-      <c r="D598" t="inlineStr"/>
-      <c r="E598" t="inlineStr"/>
-      <c r="F598" t="inlineStr"/>
-      <c r="G598" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>10:00 PM</t>
-        </is>
-      </c>
-      <c r="B599" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C599" t="inlineStr"/>
-      <c r="D599" t="inlineStr"/>
-      <c r="E599" t="inlineStr"/>
-      <c r="F599" t="inlineStr"/>
-      <c r="G599" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B600" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C600" t="inlineStr"/>
-      <c r="D600" t="inlineStr">
-        <is>
-          <t>6.05%</t>
-        </is>
-      </c>
-      <c r="E600" t="inlineStr"/>
-      <c r="F600" t="inlineStr"/>
-      <c r="G600" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B601" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateFEB/13</t>
-        </is>
-      </c>
-      <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr">
-        <is>
-          <t>6.89%</t>
-        </is>
-      </c>
-      <c r="E601" t="inlineStr"/>
-      <c r="F601" t="inlineStr"/>
-      <c r="G601" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B602" t="inlineStr">
-        <is>
-          <t>30-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C602" t="inlineStr"/>
-      <c r="D602" t="inlineStr">
-        <is>
-          <t>4.913%</t>
-        </is>
-      </c>
-      <c r="E602" t="inlineStr"/>
-      <c r="F602" t="inlineStr"/>
-      <c r="G602" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>Friday February 14 2025</t>
-        </is>
-      </c>
-      <c r="B603" t="inlineStr"/>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="inlineStr"/>
-      <c r="E603" t="inlineStr"/>
-      <c r="F603" t="inlineStr"/>
-      <c r="G603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B604" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetFEB/12</t>
-        </is>
-      </c>
-      <c r="C604" t="inlineStr"/>
-      <c r="D604" t="inlineStr">
-        <is>
-          <t>$6.81T</t>
-        </is>
-      </c>
-      <c r="E604" t="inlineStr"/>
-      <c r="F604" t="inlineStr"/>
-      <c r="G604" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B605" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMJAN</t>
-        </is>
-      </c>
-      <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E605" t="inlineStr"/>
-      <c r="F605" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G605" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B606" t="inlineStr">
-        <is>
-          <t>Export Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C606" t="inlineStr"/>
-      <c r="D606" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E606" t="inlineStr"/>
-      <c r="F606" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G606" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B607" t="inlineStr">
-        <is>
-          <t>Import Prices MoMJAN</t>
-        </is>
-      </c>
-      <c r="C607" t="inlineStr"/>
-      <c r="D607" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E607" t="inlineStr"/>
-      <c r="F607" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G607" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B608" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMJAN</t>
-        </is>
-      </c>
-      <c r="C608" t="inlineStr"/>
-      <c r="D608" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E608" t="inlineStr"/>
-      <c r="F608" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G608" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B609" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E609" t="inlineStr"/>
-      <c r="F609" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G609" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B610" t="inlineStr">
-        <is>
-          <t>Export Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C610" t="inlineStr"/>
-      <c r="D610" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="E610" t="inlineStr"/>
-      <c r="F610" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G610" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B611" t="inlineStr">
-        <is>
-          <t>Import Prices YoYJAN</t>
-        </is>
-      </c>
-      <c r="C611" t="inlineStr"/>
-      <c r="D611" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="E611" t="inlineStr"/>
-      <c r="F611" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G611" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr"/>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr"/>
-      <c r="F612" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G612" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>07:00 PM</t>
-        </is>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYJAN</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E613" t="inlineStr"/>
-      <c r="F613" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G613" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr"/>
-      <c r="D614" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="E614" t="inlineStr"/>
-      <c r="F614" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G614" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationJAN</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr"/>
-      <c r="D615" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="E615" t="inlineStr"/>
-      <c r="F615" t="inlineStr">
-        <is>
-          <t>77.4%</t>
-        </is>
-      </c>
-      <c r="G615" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr"/>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E616" t="inlineStr"/>
-      <c r="F616" t="inlineStr">
-        <is>
-          <t>0.9%</t>
-        </is>
-      </c>
-      <c r="G616" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMJAN</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr"/>
-      <c r="D617" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="E617" t="inlineStr"/>
-      <c r="F617" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G617" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>07:45 PM</t>
-        </is>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYJAN</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr"/>
-      <c r="D618" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E618" t="inlineStr"/>
-      <c r="F618" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="G618" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMDEC</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr"/>
-      <c r="D619" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E619" t="inlineStr"/>
-      <c r="F619" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G619" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>08:30 PM</t>
-        </is>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr"/>
-      <c r="D620" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E620" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F620" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G620" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr"/>
-      <c r="D621" t="inlineStr"/>
-      <c r="E621" t="inlineStr"/>
-      <c r="F621" t="inlineStr"/>
-      <c r="G621" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountFEB/14</t>
-        </is>
-      </c>
-      <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr"/>
-      <c r="E622" t="inlineStr"/>
-      <c r="F622" t="inlineStr"/>
-      <c r="G622" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>Sunday February 16 2025</t>
-        </is>
-      </c>
-      <c r="B623" t="inlineStr"/>
-      <c r="C623" t="inlineStr"/>
-      <c r="D623" t="inlineStr"/>
-      <c r="E623" t="inlineStr"/>
-      <c r="F623" t="inlineStr"/>
-      <c r="G623" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
